--- a/eth_data.xlsx
+++ b/eth_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>1908.277641905918</v>
+        <v>1880.600101259439</v>
       </c>
       <c r="C2" t="n">
-        <v>18310871317.45588</v>
+        <v>14240230761.88774</v>
       </c>
       <c r="D2" t="n">
-        <v>229440415801.9887</v>
+        <v>225581585656.9299</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>1880.600101259439</v>
+        <v>1834.826452642637</v>
       </c>
       <c r="C3" t="n">
-        <v>14240230761.88774</v>
+        <v>18427553152.35174</v>
       </c>
       <c r="D3" t="n">
-        <v>225581585656.9299</v>
+        <v>220665870251.2681</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-2.179129733194496</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>1834.826452642637</v>
+        <v>1850.11129104737</v>
       </c>
       <c r="C4" t="n">
-        <v>18427553152.35174</v>
+        <v>13363780756.79822</v>
       </c>
       <c r="D4" t="n">
-        <v>220665870251.2681</v>
+        <v>222652366350.8803</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.9002280675983965</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>1850.11129104737</v>
+        <v>1618.532504263354</v>
       </c>
       <c r="C5" t="n">
-        <v>13363780756.79822</v>
+        <v>22687362580.09534</v>
       </c>
       <c r="D5" t="n">
-        <v>222652366350.8803</v>
+        <v>194817731984.8732</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-12.50138717238793</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>1618.532504263354</v>
+        <v>1579.41572309537</v>
       </c>
       <c r="C6" t="n">
-        <v>22687362580.09534</v>
+        <v>16404512934.33661</v>
       </c>
       <c r="D6" t="n">
-        <v>194817731984.8732</v>
+        <v>189621068133.3333</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-2.667449106708275</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>1579.41572309537</v>
+        <v>1624.149982884847</v>
       </c>
       <c r="C7" t="n">
-        <v>16404512934.33661</v>
+        <v>14174702673.11302</v>
       </c>
       <c r="D7" t="n">
-        <v>189621068133.3333</v>
+        <v>195324471844.6893</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>3.007790098168606</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>1624.149982884847</v>
+        <v>1622.30703457785</v>
       </c>
       <c r="C8" t="n">
-        <v>14174702673.11302</v>
+        <v>16648637311.9742</v>
       </c>
       <c r="D8" t="n">
-        <v>195324471844.6893</v>
+        <v>193708156170.0322</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-0.8275029029348846</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>1622.30703457785</v>
+        <v>1665.791907391932</v>
       </c>
       <c r="C9" t="n">
-        <v>16648637311.9742</v>
+        <v>17182337491.18613</v>
       </c>
       <c r="D9" t="n">
-        <v>193708156170.0322</v>
+        <v>199889229686.9934</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>3.190920629865257</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>1665.791907391932</v>
+        <v>1657.793642466338</v>
       </c>
       <c r="C10" t="n">
-        <v>17182337491.18613</v>
+        <v>15322907185.33457</v>
       </c>
       <c r="D10" t="n">
-        <v>199889229686.9934</v>
+        <v>199117634174.209</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-0.386011549493015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>1657.793642466338</v>
+        <v>1697.076971963644</v>
       </c>
       <c r="C11" t="n">
-        <v>15322907185.33457</v>
+        <v>12905826689.35582</v>
       </c>
       <c r="D11" t="n">
-        <v>199117634174.209</v>
+        <v>204240810436.6186</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>2.57293950064077</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>1697.076971963644</v>
+        <v>1510.189111484051</v>
       </c>
       <c r="C12" t="n">
-        <v>12905826689.35582</v>
+        <v>23170035981.43835</v>
       </c>
       <c r="D12" t="n">
-        <v>204240810436.6186</v>
+        <v>181238520850.3789</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-11.26233759896773</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>1510.189111484051</v>
+        <v>1496.05546594209</v>
       </c>
       <c r="C13" t="n">
-        <v>23170035981.43835</v>
+        <v>15440053448.98415</v>
       </c>
       <c r="D13" t="n">
-        <v>181238520850.3789</v>
+        <v>179887478326.9864</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-0.7454499832890371</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>1496.05546594209</v>
+        <v>1438.747050327812</v>
       </c>
       <c r="C14" t="n">
-        <v>15440053448.98415</v>
+        <v>10575504871.68406</v>
       </c>
       <c r="D14" t="n">
-        <v>179887478326.9864</v>
+        <v>173645963258.5428</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-3.46967733746214</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>1438.747050327812</v>
+        <v>1555.177456041591</v>
       </c>
       <c r="C15" t="n">
-        <v>10575504871.68406</v>
+        <v>16528644851.71597</v>
       </c>
       <c r="D15" t="n">
-        <v>173645963258.5428</v>
+        <v>187437853967.2988</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>7.942534597375661</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>1555.177456041591</v>
+        <v>1525.400116232047</v>
       </c>
       <c r="C16" t="n">
-        <v>16528644851.71597</v>
+        <v>19704720195.3797</v>
       </c>
       <c r="D16" t="n">
-        <v>187437853967.2988</v>
+        <v>184447549243.5486</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-1.595357960229304</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>1525.400116232047</v>
+        <v>1552.562966228134</v>
       </c>
       <c r="C17" t="n">
-        <v>19704720195.3797</v>
+        <v>18596055350.61374</v>
       </c>
       <c r="D17" t="n">
-        <v>184447549243.5486</v>
+        <v>186670000430.8127</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.204923132011682</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>1552.562966228134</v>
+        <v>1588.980351086907</v>
       </c>
       <c r="C18" t="n">
-        <v>18596055350.61374</v>
+        <v>15076286516.89134</v>
       </c>
       <c r="D18" t="n">
-        <v>186670000430.8127</v>
+        <v>191078487039.9417</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2.361647077170814</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>1588.980351086907</v>
+        <v>1575.176630727608</v>
       </c>
       <c r="C19" t="n">
-        <v>15076286516.89134</v>
+        <v>15857654357.09863</v>
       </c>
       <c r="D19" t="n">
-        <v>191078487039.9417</v>
+        <v>189678877652.6803</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-0.7324787886607398</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>1575.176630727608</v>
+        <v>1555.674077207812</v>
       </c>
       <c r="C20" t="n">
-        <v>15857654357.09863</v>
+        <v>8500114333.500416</v>
       </c>
       <c r="D20" t="n">
-        <v>189678877652.6803</v>
+        <v>187266246294.6872</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-1.271955732683538</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>1555.674077207812</v>
+        <v>1578.949301343301</v>
       </c>
       <c r="C21" t="n">
-        <v>8500114333.500416</v>
+        <v>7827505125.483585</v>
       </c>
       <c r="D21" t="n">
-        <v>187266246294.6872</v>
+        <v>190082046955.2256</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1.503634913526963</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>1578.949301343301</v>
+        <v>1617.935455485434</v>
       </c>
       <c r="C22" t="n">
-        <v>7827505125.483585</v>
+        <v>11815125728.96987</v>
       </c>
       <c r="D22" t="n">
-        <v>190082046955.2256</v>
+        <v>194714097035.8242</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2.436868791553848</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>1617.935455485434</v>
+        <v>1564.558954030246</v>
       </c>
       <c r="C23" t="n">
-        <v>11815125728.96987</v>
+        <v>20860201644.41259</v>
       </c>
       <c r="D23" t="n">
-        <v>194714097035.8242</v>
+        <v>188733785486.0839</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-3.071329524045718</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>1564.558954030246</v>
+        <v>1629.883231163649</v>
       </c>
       <c r="C24" t="n">
-        <v>20860201644.41259</v>
+        <v>18560005397.32841</v>
       </c>
       <c r="D24" t="n">
-        <v>188733785486.0839</v>
+        <v>196797197824.3024</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>4.272373553813469</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>1629.883231163649</v>
+        <v>1635.932176013048</v>
       </c>
       <c r="C25" t="n">
-        <v>18560005397.32841</v>
+        <v>16676188643.15121</v>
       </c>
       <c r="D25" t="n">
-        <v>196797197824.3024</v>
+        <v>196882691710.4924</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.0434426339069871</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>1635.932176013048</v>
+        <v>1717.076956984047</v>
       </c>
       <c r="C26" t="n">
-        <v>16676188643.15121</v>
+        <v>19418675070.68011</v>
       </c>
       <c r="D26" t="n">
-        <v>196882691710.4924</v>
+        <v>206873029263.2678</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>5.074258923413022</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>1717.076956984047</v>
+        <v>1779.519028883305</v>
       </c>
       <c r="C27" t="n">
-        <v>19418675070.68011</v>
+        <v>12521808520.70117</v>
       </c>
       <c r="D27" t="n">
-        <v>206873029263.2678</v>
+        <v>214315849498.7275</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>3.59777215133632</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>1779.519028883305</v>
+        <v>1761.317355880691</v>
       </c>
       <c r="C28" t="n">
-        <v>12521808520.70117</v>
+        <v>11692754175.39537</v>
       </c>
       <c r="D28" t="n">
-        <v>214315849498.7275</v>
+        <v>211895058510.3476</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-1.129543612402895</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>1761.317355880691</v>
+        <v>1710.164290851521</v>
       </c>
       <c r="C29" t="n">
-        <v>11692754175.39537</v>
+        <v>16770566236.30973</v>
       </c>
       <c r="D29" t="n">
-        <v>211895058510.3476</v>
+        <v>205793007270.8716</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-2.879751553610699</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>1710.164290851521</v>
+        <v>1573.205213695171</v>
       </c>
       <c r="C30" t="n">
-        <v>16770566236.30973</v>
+        <v>22286700927.33814</v>
       </c>
       <c r="D30" t="n">
-        <v>205793007270.8716</v>
+        <v>189778580452.9788</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.781812914961694</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>1573.205213695171</v>
+        <v>1635.368206192126</v>
       </c>
       <c r="C31" t="n">
-        <v>22286700927.33814</v>
+        <v>17198033718.18021</v>
       </c>
       <c r="D31" t="n">
-        <v>189778580452.9788</v>
+        <v>196550513818.8865</v>
       </c>
       <c r="E31" t="n">
-        <v>117.4479119961619</v>
+        <v>106.2705867550563</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.568333870842455</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>1635.368206192126</v>
+        <v>1471.999592516298</v>
       </c>
       <c r="C32" t="n">
-        <v>17198033718.18021</v>
+        <v>24787864366.63655</v>
       </c>
       <c r="D32" t="n">
-        <v>196550513818.8865</v>
+        <v>177918273632.4812</v>
       </c>
       <c r="E32" t="n">
-        <v>106.2705867550562</v>
+        <v>99.60560077709911</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-9.479619169845655</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>1471.999592516298</v>
+        <v>1432.215807478607</v>
       </c>
       <c r="C33" t="n">
-        <v>24787864366.63655</v>
+        <v>17892819034.61808</v>
       </c>
       <c r="D33" t="n">
-        <v>177918273632.4812</v>
+        <v>172471655154.6259</v>
       </c>
       <c r="E33" t="n">
-        <v>99.60560077709901</v>
+        <v>96.85880797976334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-3.0613035786904</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>1432.215807478607</v>
+        <v>1471.203955363045</v>
       </c>
       <c r="C34" t="n">
-        <v>17892819034.61808</v>
+        <v>10309763882.14229</v>
       </c>
       <c r="D34" t="n">
-        <v>172471655154.6259</v>
+        <v>177299639477.4967</v>
       </c>
       <c r="E34" t="n">
-        <v>96.8588079797632</v>
+        <v>88.45486612747554</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.799291465338127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>1471.203955363045</v>
+        <v>1335.852552385052</v>
       </c>
       <c r="C35" t="n">
-        <v>10309763882.14229</v>
+        <v>14696599277.01901</v>
       </c>
       <c r="D35" t="n">
-        <v>177299639477.4967</v>
+        <v>161378107849.5712</v>
       </c>
       <c r="E35" t="n">
-        <v>88.45486612747536</v>
+        <v>100.1205636470735</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-8.980013538011889</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>1335.852552385052</v>
+        <v>1379.920704526258</v>
       </c>
       <c r="C36" t="n">
-        <v>14696599277.01901</v>
+        <v>17757533838.1638</v>
       </c>
       <c r="D36" t="n">
-        <v>161378107849.5712</v>
+        <v>166370229681.1483</v>
       </c>
       <c r="E36" t="n">
-        <v>100.1205636470733</v>
+        <v>106.9205576073283</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.09343187753226</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>1379.920704526258</v>
+        <v>1324.190564615586</v>
       </c>
       <c r="C37" t="n">
-        <v>17757533838.1638</v>
+        <v>13605986462.22813</v>
       </c>
       <c r="D37" t="n">
-        <v>166370229681.1483</v>
+        <v>159844149938.7448</v>
       </c>
       <c r="E37" t="n">
-        <v>106.9205576073281</v>
+        <v>116.1482465345588</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.922624711711209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>1324.190564615586</v>
+        <v>1252.774562168578</v>
       </c>
       <c r="C38" t="n">
-        <v>13605986462.22813</v>
+        <v>18732743241.62821</v>
       </c>
       <c r="D38" t="n">
-        <v>159844149938.7448</v>
+        <v>151084586604.4817</v>
       </c>
       <c r="E38" t="n">
-        <v>116.1482465345586</v>
+        <v>129.1332291384007</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-5.480065011838098</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>1252.774562168578</v>
+        <v>1330.79279292183</v>
       </c>
       <c r="C39" t="n">
-        <v>18732743241.62821</v>
+        <v>17517188721.08403</v>
       </c>
       <c r="D39" t="n">
-        <v>151084586604.4817</v>
+        <v>160415097114.1742</v>
       </c>
       <c r="E39" t="n">
-        <v>129.1332291384005</v>
+        <v>133.7455599219278</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.17568656034948</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>1330.79279292183</v>
+        <v>1329.558806730321</v>
       </c>
       <c r="C40" t="n">
-        <v>17517188721.08403</v>
+        <v>17599766731.24086</v>
       </c>
       <c r="D40" t="n">
-        <v>160415097114.1742</v>
+        <v>160823914264.8076</v>
       </c>
       <c r="E40" t="n">
-        <v>133.7455599219276</v>
+        <v>137.586864186646</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2548495484452129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>1329.558806730321</v>
+        <v>1318.099347021849</v>
       </c>
       <c r="C41" t="n">
-        <v>17599766731.24086</v>
+        <v>11251326609.48999</v>
       </c>
       <c r="D41" t="n">
-        <v>160823914264.8076</v>
+        <v>159030822515.2655</v>
       </c>
       <c r="E41" t="n">
-        <v>137.5868641866458</v>
+        <v>139.5058034460585</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.114940994776215</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>1318.099347021849</v>
+        <v>1294.075095279779</v>
       </c>
       <c r="C42" t="n">
-        <v>11251326609.48999</v>
+        <v>10552647869.67358</v>
       </c>
       <c r="D42" t="n">
-        <v>159030822515.2655</v>
+        <v>156146367767.2713</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5058034460583</v>
+        <v>145.5644997363927</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.813770879363541</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>1294.075095279779</v>
+        <v>1335.121205199171</v>
       </c>
       <c r="C43" t="n">
-        <v>10552647869.67358</v>
+        <v>15270197375.84675</v>
       </c>
       <c r="D43" t="n">
-        <v>156146367767.2713</v>
+        <v>160767471777.8733</v>
       </c>
       <c r="E43" t="n">
-        <v>145.5644997363924</v>
+        <v>149.1847580889627</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.959469423899441</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>1335.121205199171</v>
+        <v>1331.150176933863</v>
       </c>
       <c r="C44" t="n">
-        <v>15270197375.84675</v>
+        <v>16685874856.00401</v>
       </c>
       <c r="D44" t="n">
-        <v>160767471777.8733</v>
+        <v>160800122124.8998</v>
       </c>
       <c r="E44" t="n">
-        <v>149.1847580889625</v>
+        <v>152.1961227831719</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02030905049725806</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>1331.150176933863</v>
+        <v>1340.023059481652</v>
       </c>
       <c r="C45" t="n">
-        <v>16685874856.00401</v>
+        <v>16571161476.25387</v>
       </c>
       <c r="D45" t="n">
-        <v>160800122124.8998</v>
+        <v>161716193676.295</v>
       </c>
       <c r="E45" t="n">
-        <v>152.1961227831716</v>
+        <v>154.819268642989</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5696958057554768</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>1340.023059481652</v>
+        <v>1335.738970633567</v>
       </c>
       <c r="C46" t="n">
-        <v>16571161476.25387</v>
+        <v>11834328252.39209</v>
       </c>
       <c r="D46" t="n">
-        <v>161716193676.295</v>
+        <v>161267455734.3682</v>
       </c>
       <c r="E46" t="n">
-        <v>154.8192686429888</v>
+        <v>157.5228265077599</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.2774848527693274</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>1335.738970633567</v>
+        <v>1329.146032070796</v>
       </c>
       <c r="C47" t="n">
-        <v>11834328252.39209</v>
+        <v>11849125783.7593</v>
       </c>
       <c r="D47" t="n">
-        <v>161267455734.3682</v>
+        <v>160462955554.3285</v>
       </c>
       <c r="E47" t="n">
-        <v>157.5228265077596</v>
+        <v>159.8237082470833</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4988608373439618</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>1329.146032070796</v>
+        <v>1311.263324416286</v>
       </c>
       <c r="C48" t="n">
-        <v>11849125783.7593</v>
+        <v>5052407840.714767</v>
       </c>
       <c r="D48" t="n">
-        <v>160462955554.3285</v>
+        <v>158410068981.481</v>
       </c>
       <c r="E48" t="n">
-        <v>159.823708247083</v>
+        <v>161.597628804181</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.279352337588213</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>1311.263324416286</v>
+        <v>1277.901345279672</v>
       </c>
       <c r="C49" t="n">
-        <v>5052407840.714767</v>
+        <v>6227268235.758528</v>
       </c>
       <c r="D49" t="n">
-        <v>158410068981.481</v>
+        <v>154934842225.9091</v>
       </c>
       <c r="E49" t="n">
-        <v>161.5976288041806</v>
+        <v>164.3506659366604</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.193816831162565</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>1277.901345279672</v>
+        <v>1323.504017972291</v>
       </c>
       <c r="C50" t="n">
-        <v>6227268235.758528</v>
+        <v>8749663554.66095</v>
       </c>
       <c r="D50" t="n">
-        <v>154934842225.9091</v>
+        <v>159951067075.9052</v>
       </c>
       <c r="E50" t="n">
-        <v>164.3506659366601</v>
+        <v>165.4137878706704</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.237635110301418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>1323.504017972291</v>
+        <v>1363.237182194504</v>
       </c>
       <c r="C51" t="n">
-        <v>8749663554.66095</v>
+        <v>8587836597.469869</v>
       </c>
       <c r="D51" t="n">
-        <v>159951067075.9052</v>
+        <v>164781680358.1557</v>
       </c>
       <c r="E51" t="n">
-        <v>165.41378787067</v>
+        <v>164.6442250054336</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.020056927759085</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>1363.237182194504</v>
+        <v>1352.586524302487</v>
       </c>
       <c r="C52" t="n">
-        <v>8587836597.469869</v>
+        <v>8502549881.905833</v>
       </c>
       <c r="D52" t="n">
-        <v>164781680358.1557</v>
+        <v>163475522281.134</v>
       </c>
       <c r="E52" t="n">
-        <v>164.6442250054332</v>
+        <v>162.4477807194827</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7926597630165677</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>1352.586524302487</v>
+        <v>1351.427369197954</v>
       </c>
       <c r="C53" t="n">
-        <v>8502549881.905833</v>
+        <v>10653358724.95341</v>
       </c>
       <c r="D53" t="n">
-        <v>163475522281.134</v>
+        <v>163307579801.8425</v>
       </c>
       <c r="E53" t="n">
-        <v>162.4477807194823</v>
+        <v>161.5419660954053</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1027324928821183</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>1351.427369197954</v>
+        <v>1324.89473802906</v>
       </c>
       <c r="C54" t="n">
-        <v>10653358724.95341</v>
+        <v>9123112355.727316</v>
       </c>
       <c r="D54" t="n">
-        <v>163307579801.8425</v>
+        <v>160084472602.3366</v>
       </c>
       <c r="E54" t="n">
-        <v>161.5419660954049</v>
+        <v>158.3863939553283</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.973642131869691</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>1324.89473802906</v>
+        <v>1315.857799905668</v>
       </c>
       <c r="C55" t="n">
-        <v>9123112355.727316</v>
+        <v>4942603337.902456</v>
       </c>
       <c r="D55" t="n">
-        <v>160084472602.3366</v>
+        <v>159083423929.7147</v>
       </c>
       <c r="E55" t="n">
-        <v>158.3863939553279</v>
+        <v>154.3689517740609</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.6253252775543117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>1315.857799905668</v>
+        <v>1322.269755219371</v>
       </c>
       <c r="C56" t="n">
-        <v>4942603337.902456</v>
+        <v>4753165267.937541</v>
       </c>
       <c r="D56" t="n">
-        <v>159083423929.7147</v>
+        <v>159586330117.5498</v>
       </c>
       <c r="E56" t="n">
-        <v>154.3689517740604</v>
+        <v>144.0954962150001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3161273345846816</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>1322.269755219371</v>
+        <v>1291.081659669555</v>
       </c>
       <c r="C57" t="n">
-        <v>4753165267.937541</v>
+        <v>7492362032.739503</v>
       </c>
       <c r="D57" t="n">
-        <v>159586330117.5498</v>
+        <v>156180434676.1384</v>
       </c>
       <c r="E57" t="n">
-        <v>144.0954962149995</v>
+        <v>126.2846019487259</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-2.134202496481141</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>1291.081659669555</v>
+        <v>1279.883307547261</v>
       </c>
       <c r="C58" t="n">
-        <v>7492362032.739503</v>
+        <v>8314705467.191551</v>
       </c>
       <c r="D58" t="n">
-        <v>156180434676.1384</v>
+        <v>154657511483.1829</v>
       </c>
       <c r="E58" t="n">
-        <v>126.2846019487252</v>
+        <v>105.6054584581421</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.9751049778504606</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>1279.883307547261</v>
+        <v>1294.271051388217</v>
       </c>
       <c r="C59" t="n">
-        <v>8314705467.191551</v>
+        <v>7512521119.536691</v>
       </c>
       <c r="D59" t="n">
-        <v>154657511483.1829</v>
+        <v>156488571589.455</v>
       </c>
       <c r="E59" t="n">
-        <v>105.6054584581411</v>
+        <v>84.31096884035772</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.183945149971755</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>1294.271051388217</v>
+        <v>1288.164014702081</v>
       </c>
       <c r="C60" t="n">
-        <v>7512521119.536691</v>
+        <v>15374968702.82496</v>
       </c>
       <c r="D60" t="n">
-        <v>156488571589.455</v>
+        <v>155703285133.856</v>
       </c>
       <c r="E60" t="n">
-        <v>84.31096884035632</v>
+        <v>74.25044207376057</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5018171280003703</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>1288.164014702081</v>
+        <v>1297.627605322384</v>
       </c>
       <c r="C61" t="n">
-        <v>15374968702.82496</v>
+        <v>11792024290.98303</v>
       </c>
       <c r="D61" t="n">
-        <v>155703285133.856</v>
+        <v>156801885520.455</v>
       </c>
       <c r="E61" t="n">
-        <v>74.2504420737589</v>
+        <v>50.46821314605189</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.7055730299167839</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>1297.627605322384</v>
+        <v>1275.693777394798</v>
       </c>
       <c r="C62" t="n">
-        <v>11792024290.98303</v>
+        <v>5743906844.859241</v>
       </c>
       <c r="D62" t="n">
-        <v>156801885520.455</v>
+        <v>154496140301.9263</v>
       </c>
       <c r="E62" t="n">
-        <v>50.46821314604928</v>
+        <v>44.23681018761691</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.470483094559394</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>1275.693777394798</v>
+        <v>1306.943118828839</v>
       </c>
       <c r="C63" t="n">
-        <v>5743906844.859241</v>
+        <v>6318629607.96271</v>
       </c>
       <c r="D63" t="n">
-        <v>154496140301.9263</v>
+        <v>157219790372.8708</v>
       </c>
       <c r="E63" t="n">
-        <v>44.23681018761382</v>
+        <v>39.6340243189039</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.762924345955641</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>1306.943118828839</v>
+        <v>1333.440877630165</v>
       </c>
       <c r="C64" t="n">
-        <v>6318629607.96271</v>
+        <v>8639535764.06259</v>
       </c>
       <c r="D64" t="n">
-        <v>157219790372.8708</v>
+        <v>160690333948.3311</v>
       </c>
       <c r="E64" t="n">
-        <v>39.63402431890039</v>
+        <v>28.1706801393863</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.207447018743269</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>1333.440877630165</v>
+        <v>1311.806725515823</v>
       </c>
       <c r="C65" t="n">
-        <v>8639535764.06259</v>
+        <v>9536615488.397163</v>
       </c>
       <c r="D65" t="n">
-        <v>160690333948.3311</v>
+        <v>158082173402.6073</v>
       </c>
       <c r="E65" t="n">
-        <v>28.17068013938124</v>
+        <v>27.99310565942591</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-1.623097346080871</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>1311.806725515823</v>
+        <v>1284.654933702257</v>
       </c>
       <c r="C66" t="n">
-        <v>9536615488.397163</v>
+        <v>8128527355.67816</v>
       </c>
       <c r="D66" t="n">
-        <v>158082173402.6073</v>
+        <v>154808369275.8144</v>
       </c>
       <c r="E66" t="n">
-        <v>27.9931056594208</v>
+        <v>25.98973033847578</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2.070950858231846</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>1284.654933702257</v>
+        <v>1282.042646775961</v>
       </c>
       <c r="C67" t="n">
-        <v>8128527355.67816</v>
+        <v>8816030159.087742</v>
       </c>
       <c r="D67" t="n">
-        <v>154808369275.8144</v>
+        <v>154512893268.0924</v>
       </c>
       <c r="E67" t="n">
-        <v>25.98973033847019</v>
+        <v>26.56605326995568</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.1908656548119669</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>1282.042646775961</v>
+        <v>1299.801905250639</v>
       </c>
       <c r="C68" t="n">
-        <v>8816030159.087742</v>
+        <v>8731620089.4909</v>
       </c>
       <c r="D68" t="n">
-        <v>154512893268.0924</v>
+        <v>156673724237.2881</v>
       </c>
       <c r="E68" t="n">
-        <v>26.56605326995017</v>
+        <v>24.18024537344997</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.398479391261209</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>1299.801905250639</v>
+        <v>1313.767778723105</v>
       </c>
       <c r="C69" t="n">
-        <v>8731620089.4909</v>
+        <v>4996733236.216461</v>
       </c>
       <c r="D69" t="n">
-        <v>156673724237.2881</v>
+        <v>158365108378.3375</v>
       </c>
       <c r="E69" t="n">
-        <v>24.18024537344396</v>
+        <v>23.98126080037373</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.079558266252545</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>1313.767778723105</v>
+        <v>1364.486871306374</v>
       </c>
       <c r="C70" t="n">
-        <v>4996733236.216461</v>
+        <v>7794024007.581724</v>
       </c>
       <c r="D70" t="n">
-        <v>158365108378.3375</v>
+        <v>164218113409.7565</v>
       </c>
       <c r="E70" t="n">
-        <v>23.98126080036766</v>
+        <v>25.56645865181592</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.695893048256615</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>1364.486871306374</v>
+        <v>1343.334491985092</v>
       </c>
       <c r="C71" t="n">
-        <v>7794024007.581724</v>
+        <v>10789079575.1136</v>
       </c>
       <c r="D71" t="n">
-        <v>164218113409.7565</v>
+        <v>161858058865.0681</v>
       </c>
       <c r="E71" t="n">
-        <v>25.56645865181026</v>
+        <v>26.08192953208156</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-1.437146302368997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>1343.334491985092</v>
+        <v>1462.048937562986</v>
       </c>
       <c r="C72" t="n">
-        <v>10789079575.1136</v>
+        <v>19624530679.95695</v>
       </c>
       <c r="D72" t="n">
-        <v>161858058865.0681</v>
+        <v>176051206695.9982</v>
       </c>
       <c r="E72" t="n">
-        <v>26.08192953207603</v>
+        <v>36.99515775742069</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.768885485499434</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>1462.048937562986</v>
+        <v>1568.747585570839</v>
       </c>
       <c r="C73" t="n">
-        <v>19624530679.95695</v>
+        <v>24505395072.04623</v>
       </c>
       <c r="D73" t="n">
-        <v>176051206695.9982</v>
+        <v>189173389239.5451</v>
       </c>
       <c r="E73" t="n">
-        <v>36.99515775741693</v>
+        <v>58.38207921893681</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7.453616927605644</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>1568.747585570839</v>
+        <v>1514.863525253398</v>
       </c>
       <c r="C74" t="n">
-        <v>24505395072.04623</v>
+        <v>17752430680.40371</v>
       </c>
       <c r="D74" t="n">
-        <v>189173389239.5451</v>
+        <v>182723289741.9848</v>
       </c>
       <c r="E74" t="n">
-        <v>58.38207921893455</v>
+        <v>67.5119149612141</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.409623057179945</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>1514.863525253398</v>
+        <v>1555.029213581394</v>
       </c>
       <c r="C75" t="n">
-        <v>17752430680.40371</v>
+        <v>15641652314.21012</v>
       </c>
       <c r="D75" t="n">
-        <v>182723289741.9848</v>
+        <v>187324850268.1891</v>
       </c>
       <c r="E75" t="n">
-        <v>67.51191496121226</v>
+        <v>78.53704206937812</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.518321847588223</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>1555.029213581394</v>
+        <v>1619.429583627744</v>
       </c>
       <c r="C76" t="n">
-        <v>15641652314.21012</v>
+        <v>17044927217.75192</v>
       </c>
       <c r="D76" t="n">
-        <v>187324850268.1891</v>
+        <v>195052502985.6703</v>
       </c>
       <c r="E76" t="n">
-        <v>78.53704206937662</v>
+        <v>93.37092636042657</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.125268327409648</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>1619.429583627744</v>
+        <v>1591.0517734961</v>
       </c>
       <c r="C77" t="n">
-        <v>17044927217.75192</v>
+        <v>10366405350.25076</v>
       </c>
       <c r="D77" t="n">
-        <v>195052502985.6703</v>
+        <v>191500820025.9781</v>
       </c>
       <c r="E77" t="n">
-        <v>93.37092636042543</v>
+        <v>102.9188766524048</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.82088561045185</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>1591.0517734961</v>
+        <v>1572.979514885975</v>
       </c>
       <c r="C78" t="n">
-        <v>10366405350.25076</v>
+        <v>14900137160.39605</v>
       </c>
       <c r="D78" t="n">
-        <v>191500820025.9781</v>
+        <v>189478578997.5959</v>
       </c>
       <c r="E78" t="n">
-        <v>102.9188766524039</v>
+        <v>109.4673639618843</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-1.055996015112548</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>1572.979514885975</v>
+        <v>1580.378733440259</v>
       </c>
       <c r="C79" t="n">
-        <v>14900137160.39605</v>
+        <v>19199900507.15055</v>
       </c>
       <c r="D79" t="n">
-        <v>189478578997.5959</v>
+        <v>190428736966.3317</v>
       </c>
       <c r="E79" t="n">
-        <v>109.4673639618835</v>
+        <v>114.5581541154514</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5014593067788509</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>1580.378733440259</v>
+        <v>1520.638364378985</v>
       </c>
       <c r="C80" t="n">
-        <v>19199900507.15055</v>
+        <v>27498708818.13337</v>
       </c>
       <c r="D80" t="n">
-        <v>190428736966.3317</v>
+        <v>183368006193.1099</v>
       </c>
       <c r="E80" t="n">
-        <v>114.5581541154507</v>
+        <v>116.8654699829139</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.707807385431638</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>1520.638364378985</v>
+        <v>1531.112630741574</v>
       </c>
       <c r="C81" t="n">
-        <v>27498708818.13337</v>
+        <v>22537458293.69225</v>
       </c>
       <c r="D81" t="n">
-        <v>183368006193.1099</v>
+        <v>184398997533.259</v>
       </c>
       <c r="E81" t="n">
-        <v>116.8654699829133</v>
+        <v>119.7182619821987</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5622525769644948</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>1531.112630741574</v>
+        <v>1644.19285780894</v>
       </c>
       <c r="C82" t="n">
-        <v>22537458293.69225</v>
+        <v>36953923774.7607</v>
       </c>
       <c r="D82" t="n">
-        <v>184398997533.259</v>
+        <v>198053929735.6523</v>
       </c>
       <c r="E82" t="n">
-        <v>119.7182619821982</v>
+        <v>127.9874712152145</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.405101104158907</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>1644.19285780894</v>
+        <v>1626.806430493364</v>
       </c>
       <c r="C83" t="n">
-        <v>36953923774.7607</v>
+        <v>21174006976.11983</v>
       </c>
       <c r="D83" t="n">
-        <v>198053929735.6523</v>
+        <v>196264485041.5907</v>
       </c>
       <c r="E83" t="n">
-        <v>127.9874712152142</v>
+        <v>134.0133046971509</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.9035138542567989</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>1626.806430493364</v>
+        <v>1572.947776972159</v>
       </c>
       <c r="C84" t="n">
-        <v>21174006976.11983</v>
+        <v>22195586345.87658</v>
       </c>
       <c r="D84" t="n">
-        <v>196264485041.5907</v>
+        <v>189763621397.9497</v>
       </c>
       <c r="E84" t="n">
-        <v>134.0133046971507</v>
+        <v>136.1793121822748</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-3.312297506226536</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>1572.947776972159</v>
+        <v>1569.98863600334</v>
       </c>
       <c r="C85" t="n">
-        <v>22195586345.87658</v>
+        <v>30344896841.85249</v>
       </c>
       <c r="D85" t="n">
-        <v>189763621397.9497</v>
+        <v>188875473098.0201</v>
       </c>
       <c r="E85" t="n">
-        <v>136.1793121822746</v>
+        <v>137.4502472908406</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4680287472313083</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>1569.98863600334</v>
+        <v>1334.287933108239</v>
       </c>
       <c r="C86" t="n">
-        <v>30344896841.85249</v>
+        <v>32343101742.62143</v>
       </c>
       <c r="D86" t="n">
-        <v>188875473098.0201</v>
+        <v>160813058133.9897</v>
       </c>
       <c r="E86" t="n">
-        <v>137.4502472908405</v>
+        <v>137.1507140021475</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-14.85762788769667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>1334.287933108239</v>
+        <v>1095.183977113294</v>
       </c>
       <c r="C87" t="n">
-        <v>32343101742.62143</v>
+        <v>29253284762.65954</v>
       </c>
       <c r="D87" t="n">
-        <v>160813058133.9897</v>
+        <v>131794377265.6127</v>
       </c>
       <c r="E87" t="n">
-        <v>137.1507140021475</v>
+        <v>148.106317312422</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-18.04497794215102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>1095.183977113294</v>
+        <v>1301.553880307442</v>
       </c>
       <c r="C88" t="n">
-        <v>29253284762.65954</v>
+        <v>24039423467.45047</v>
       </c>
       <c r="D88" t="n">
-        <v>131794377265.6127</v>
+        <v>156380990539.8564</v>
       </c>
       <c r="E88" t="n">
-        <v>148.1063173124219</v>
+        <v>147.4447478729388</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18.65528240608694</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>1301.553880307442</v>
+        <v>1293.911594887152</v>
       </c>
       <c r="C89" t="n">
-        <v>24039423467.45047</v>
+        <v>17355612789.31973</v>
       </c>
       <c r="D89" t="n">
-        <v>156380990539.8564</v>
+        <v>155222424523.5394</v>
       </c>
       <c r="E89" t="n">
-        <v>147.4447478729387</v>
+        <v>147.4554920854101</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.7408611573040291</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>1293.911594887152</v>
+        <v>1255.601050757844</v>
       </c>
       <c r="C90" t="n">
-        <v>17355612789.31973</v>
+        <v>8636739779.554464</v>
       </c>
       <c r="D90" t="n">
-        <v>155222424523.5394</v>
+        <v>151059842003.2236</v>
       </c>
       <c r="E90" t="n">
-        <v>147.45549208541</v>
+        <v>148.5893491143355</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-2.681688894560819</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>1255.601050757844</v>
+        <v>1223.006443328368</v>
       </c>
       <c r="C91" t="n">
-        <v>8636739779.554464</v>
+        <v>7719000328.307081</v>
       </c>
       <c r="D91" t="n">
-        <v>151059842003.2236</v>
+        <v>147426038251.7689</v>
       </c>
       <c r="E91" t="n">
-        <v>148.5893491143353</v>
+        <v>151.321996463328</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-2.405539224234809</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>1223.006443328368</v>
+        <v>1241.997092728311</v>
       </c>
       <c r="C92" t="n">
-        <v>7719000328.307081</v>
+        <v>12056844339.73966</v>
       </c>
       <c r="D92" t="n">
-        <v>147426038251.7689</v>
+        <v>149987178583.2173</v>
       </c>
       <c r="E92" t="n">
-        <v>151.3219964633278</v>
+        <v>152.5373929536006</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.737237439070705</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>1241.997092728311</v>
+        <v>1252.706730836685</v>
       </c>
       <c r="C93" t="n">
-        <v>12056844339.73966</v>
+        <v>8940477028.374247</v>
       </c>
       <c r="D93" t="n">
-        <v>149987178583.2173</v>
+        <v>151062413577.5623</v>
       </c>
       <c r="E93" t="n">
-        <v>152.5373929536005</v>
+        <v>154.2015661945183</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7168846060721323</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>1252.706730836685</v>
+        <v>1217.702089216301</v>
       </c>
       <c r="C94" t="n">
-        <v>8940477028.374247</v>
+        <v>8870530650.446701</v>
       </c>
       <c r="D94" t="n">
-        <v>151062413577.5623</v>
+        <v>146462319554.3164</v>
       </c>
       <c r="E94" t="n">
-        <v>154.2015661945182</v>
+        <v>157.7300923295675</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3.045161211384972</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>1217.702089216301</v>
+        <v>1201.789841964129</v>
       </c>
       <c r="C95" t="n">
-        <v>8870530650.446701</v>
+        <v>7075882101.619532</v>
       </c>
       <c r="D95" t="n">
-        <v>146462319554.3164</v>
+        <v>144894942760.2967</v>
       </c>
       <c r="E95" t="n">
-        <v>157.7300923295674</v>
+        <v>161.3657881610957</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.070157019764006</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>1201.789841964129</v>
+        <v>1213.49631006335</v>
       </c>
       <c r="C96" t="n">
-        <v>7075882101.619532</v>
+        <v>5600678512.529781</v>
       </c>
       <c r="D96" t="n">
-        <v>144894942760.2967</v>
+        <v>146145817586.6032</v>
       </c>
       <c r="E96" t="n">
-        <v>161.3657881610955</v>
+        <v>163.7448332558523</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.8632977814662768</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>1213.49631006335</v>
+        <v>1218.893657111246</v>
       </c>
       <c r="C97" t="n">
-        <v>5600678512.529781</v>
+        <v>3722348151.002224</v>
       </c>
       <c r="D97" t="n">
-        <v>146145817586.6032</v>
+        <v>146971097131.6747</v>
       </c>
       <c r="E97" t="n">
-        <v>163.7448332558521</v>
+        <v>165.7798234141031</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5646959719407763</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>1218.893657111246</v>
+        <v>1144.253152508554</v>
       </c>
       <c r="C98" t="n">
-        <v>3722348151.002224</v>
+        <v>6826180055.62674</v>
       </c>
       <c r="D98" t="n">
-        <v>146971097131.6747</v>
+        <v>137964810712.7498</v>
       </c>
       <c r="E98" t="n">
-        <v>165.7798234141029</v>
+        <v>171.4663765284128</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-6.127930317384777</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>1144.253152508554</v>
+        <v>1110.288213012459</v>
       </c>
       <c r="C99" t="n">
-        <v>6826180055.62674</v>
+        <v>10372965080.61286</v>
       </c>
       <c r="D99" t="n">
-        <v>137964810712.7498</v>
+        <v>133733639793.5223</v>
       </c>
       <c r="E99" t="n">
-        <v>171.4663765284125</v>
+        <v>178.7897679516857</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.066847913876358</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>1110.288213012459</v>
+        <v>1135.175811894246</v>
       </c>
       <c r="C100" t="n">
-        <v>10372965080.61286</v>
+        <v>9220536958.839794</v>
       </c>
       <c r="D100" t="n">
-        <v>133733639793.5223</v>
+        <v>137050514642.0692</v>
       </c>
       <c r="E100" t="n">
-        <v>178.7897679516854</v>
+        <v>184.7824650610834</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.480209806349332</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>1135.175811894246</v>
+        <v>1184.461758102965</v>
       </c>
       <c r="C101" t="n">
-        <v>9220536958.839794</v>
+        <v>9189536303.575544</v>
       </c>
       <c r="D101" t="n">
-        <v>137050514642.0692</v>
+        <v>142854533237.6927</v>
       </c>
       <c r="E101" t="n">
-        <v>184.7824650610831</v>
+        <v>188.226090244054</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.234948413569817</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>1184.461758102965</v>
+        <v>1204.20780283312</v>
       </c>
       <c r="C102" t="n">
-        <v>9189536303.575544</v>
+        <v>6955523718.221009</v>
       </c>
       <c r="D102" t="n">
-        <v>142854533237.6927</v>
+        <v>145091739838.4412</v>
       </c>
       <c r="E102" t="n">
-        <v>188.2260902440537</v>
+        <v>190.155642588376</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.566073228510034</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>1204.20780283312</v>
+        <v>1198.975588488907</v>
       </c>
       <c r="C103" t="n">
-        <v>6955523718.221009</v>
+        <v>5823202533.487156</v>
       </c>
       <c r="D103" t="n">
-        <v>145091739838.4412</v>
+        <v>144810246844.9167</v>
       </c>
       <c r="E103" t="n">
-        <v>190.1556425883756</v>
+        <v>188.8006770795995</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.1940103508565771</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>1198.975588488907</v>
+        <v>1205.657960215714</v>
       </c>
       <c r="C104" t="n">
-        <v>5823202533.487156</v>
+        <v>5271100859.564753</v>
       </c>
       <c r="D104" t="n">
-        <v>144810246844.9167</v>
+        <v>145222050633.4643</v>
       </c>
       <c r="E104" t="n">
-        <v>188.8006770795991</v>
+        <v>188.3568126232053</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.2843747576706912</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>1205.657960215714</v>
+        <v>1196.196219565926</v>
       </c>
       <c r="C105" t="n">
-        <v>5271100859.564753</v>
+        <v>4150923882.274703</v>
       </c>
       <c r="D105" t="n">
-        <v>145222050633.4643</v>
+        <v>144507830172.6072</v>
       </c>
       <c r="E105" t="n">
-        <v>188.3568126232048</v>
+        <v>186.0875137424826</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.4918126811608081</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>1196.196219565926</v>
+        <v>1170.115741471507</v>
       </c>
       <c r="C106" t="n">
-        <v>4150923882.274703</v>
+        <v>6467273323.741678</v>
       </c>
       <c r="D106" t="n">
-        <v>144507830172.6072</v>
+        <v>141048501904.6694</v>
       </c>
       <c r="E106" t="n">
-        <v>186.0875137424821</v>
+        <v>180.4258675216343</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-2.39386908225373</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>1170.115741471507</v>
+        <v>1216.936420693739</v>
       </c>
       <c r="C107" t="n">
-        <v>6467273323.741678</v>
+        <v>7132972094.453388</v>
       </c>
       <c r="D107" t="n">
-        <v>141048501904.6694</v>
+        <v>146749281622.5983</v>
       </c>
       <c r="E107" t="n">
-        <v>180.4258675216337</v>
+        <v>173.8784126731351</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4.041715892723108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>1216.936420693739</v>
+        <v>1298.94077037352</v>
       </c>
       <c r="C108" t="n">
-        <v>7132972094.453388</v>
+        <v>9889408117.518559</v>
       </c>
       <c r="D108" t="n">
-        <v>146749281622.5983</v>
+        <v>156777674228.4068</v>
       </c>
       <c r="E108" t="n">
-        <v>173.8784126731344</v>
+        <v>166.511760365369</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.833691105622575</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>1298.94077037352</v>
+        <v>1276.639371403096</v>
       </c>
       <c r="C109" t="n">
-        <v>9889408117.518559</v>
+        <v>6400063074.120894</v>
       </c>
       <c r="D109" t="n">
-        <v>156777674228.4068</v>
+        <v>153787135286.8929</v>
       </c>
       <c r="E109" t="n">
-        <v>166.5117603653682</v>
+        <v>157.8012219123931</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-1.907503065236893</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>1276.639371403096</v>
+        <v>1293.948023178214</v>
       </c>
       <c r="C110" t="n">
-        <v>6400063074.120894</v>
+        <v>5644934957.241694</v>
       </c>
       <c r="D110" t="n">
-        <v>153787135286.8929</v>
+        <v>155766037022.9388</v>
       </c>
       <c r="E110" t="n">
-        <v>157.8012219123922</v>
+        <v>151.6125217650134</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.286779763700197</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>1293.948023178214</v>
+        <v>1243.040842328974</v>
       </c>
       <c r="C111" t="n">
-        <v>5644934957.241694</v>
+        <v>5183647936.284697</v>
       </c>
       <c r="D111" t="n">
-        <v>155766037022.9388</v>
+        <v>150322759022.7516</v>
       </c>
       <c r="E111" t="n">
-        <v>151.6125217650123</v>
+        <v>144.1672252685814</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-3.494521722591992</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>1243.040842328974</v>
+        <v>1282.416448139406</v>
       </c>
       <c r="C112" t="n">
-        <v>5183647936.284697</v>
+        <v>4842789176.374092</v>
       </c>
       <c r="D112" t="n">
-        <v>150322759022.7516</v>
+        <v>154484879835.4558</v>
       </c>
       <c r="E112" t="n">
-        <v>144.1672252685802</v>
+        <v>125.8827296678677</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.768789529783922</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>1282.416448139406</v>
+        <v>1259.757574856535</v>
       </c>
       <c r="C113" t="n">
-        <v>4842789176.374092</v>
+        <v>5795682744.772271</v>
       </c>
       <c r="D113" t="n">
-        <v>154484879835.4558</v>
+        <v>151960138515.5798</v>
       </c>
       <c r="E113" t="n">
-        <v>125.8827296678661</v>
+        <v>105.0530002291571</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-1.634296717300199</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>1259.757574856535</v>
+        <v>1271.935476126395</v>
       </c>
       <c r="C114" t="n">
-        <v>5795682744.772271</v>
+        <v>4765089563.175744</v>
       </c>
       <c r="D114" t="n">
-        <v>151960138515.5798</v>
+        <v>153112232020.5009</v>
       </c>
       <c r="E114" t="n">
-        <v>105.053000229155</v>
+        <v>85.39749791755436</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.75815507683481</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>1271.935476126395</v>
+        <v>1233.62504839904</v>
       </c>
       <c r="C115" t="n">
-        <v>4765089563.175744</v>
+        <v>5392077793.333963</v>
       </c>
       <c r="D115" t="n">
-        <v>153112232020.5009</v>
+        <v>148778387852.6104</v>
       </c>
       <c r="E115" t="n">
-        <v>85.3974979175516</v>
+        <v>57.80962175577657</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-2.830501593961643</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>1233.62504839904</v>
+        <v>1281.210637067264</v>
       </c>
       <c r="C116" t="n">
-        <v>5392077793.333963</v>
+        <v>5929103713.482471</v>
       </c>
       <c r="D116" t="n">
-        <v>148778387852.6104</v>
+        <v>154438830699.8818</v>
       </c>
       <c r="E116" t="n">
-        <v>57.80962175577218</v>
+        <v>55.1277460003616</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.804613646492161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>1281.210637067264</v>
+        <v>1264.477346721568</v>
       </c>
       <c r="C117" t="n">
-        <v>5929103713.482471</v>
+        <v>5743935111.263781</v>
       </c>
       <c r="D117" t="n">
-        <v>154438830699.8818</v>
+        <v>152405570526.7302</v>
       </c>
       <c r="E117" t="n">
-        <v>55.12774600035694</v>
+        <v>49.89007599623209</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-1.316547246529498</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>1264.477346721568</v>
+        <v>1264.792279349514</v>
       </c>
       <c r="C118" t="n">
-        <v>5743935111.263781</v>
+        <v>3136321665.274628</v>
       </c>
       <c r="D118" t="n">
-        <v>152405570526.7302</v>
+        <v>152480155389.3098</v>
       </c>
       <c r="E118" t="n">
-        <v>49.89007599622717</v>
+        <v>48.49803208515763</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0489384097456691</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>1264.792279349514</v>
+        <v>1264.317985551174</v>
       </c>
       <c r="C119" t="n">
-        <v>3136321665.274628</v>
+        <v>3179021750.447237</v>
       </c>
       <c r="D119" t="n">
-        <v>152480155389.3098</v>
+        <v>152290250844.8379</v>
       </c>
       <c r="E119" t="n">
-        <v>48.49803208515253</v>
+        <v>47.41128056815372</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.1245437768521596</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>1264.317985551174</v>
+        <v>1275.332421155143</v>
       </c>
       <c r="C120" t="n">
-        <v>3179021750.447237</v>
+        <v>5107100671.713232</v>
       </c>
       <c r="D120" t="n">
-        <v>152290250844.8379</v>
+        <v>153743004467.3702</v>
       </c>
       <c r="E120" t="n">
-        <v>47.41128056814846</v>
+        <v>47.94763422591783</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9539373758156611</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>1275.332421155143</v>
+        <v>1319.413007743119</v>
       </c>
       <c r="C121" t="n">
-        <v>5107100671.713232</v>
+        <v>8667920250.973438</v>
       </c>
       <c r="D121" t="n">
-        <v>153743004467.3702</v>
+        <v>159205793114.4748</v>
       </c>
       <c r="E121" t="n">
-        <v>47.94763422591266</v>
+        <v>50.73644852658561</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.553194934644321</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>1319.413007743119</v>
+        <v>1308.400152340385</v>
       </c>
       <c r="C122" t="n">
-        <v>8667920250.973438</v>
+        <v>8063349707.439905</v>
       </c>
       <c r="D122" t="n">
-        <v>159205793114.4748</v>
+        <v>157633274799.2686</v>
       </c>
       <c r="E122" t="n">
-        <v>50.73644852658085</v>
+        <v>52.62688092389409</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.9877268185055743</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>1308.400152340385</v>
+        <v>1263.746424085688</v>
       </c>
       <c r="C123" t="n">
-        <v>8063349707.439905</v>
+        <v>6014960880.483797</v>
       </c>
       <c r="D123" t="n">
-        <v>157633274799.2686</v>
+        <v>152444818382.9213</v>
       </c>
       <c r="E123" t="n">
-        <v>52.6268809238896</v>
+        <v>52.80312604425631</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-3.291472833356013</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>1263.746424085688</v>
+        <v>1165.973777282333</v>
       </c>
       <c r="C124" t="n">
-        <v>6014960880.483797</v>
+        <v>9306680537.671982</v>
       </c>
       <c r="D124" t="n">
-        <v>152444818382.9213</v>
+        <v>140289330990.1754</v>
       </c>
       <c r="E124" t="n">
-        <v>52.80312604425185</v>
+        <v>54.18047189529519</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-7.973696660658458</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>1165.973777282333</v>
+        <v>1189.427521564199</v>
       </c>
       <c r="C125" t="n">
-        <v>9306680537.671982</v>
+        <v>4893469369.238545</v>
       </c>
       <c r="D125" t="n">
-        <v>140289330990.1754</v>
+        <v>143321475845.9079</v>
       </c>
       <c r="E125" t="n">
-        <v>54.18047189529076</v>
+        <v>54.46662587347829</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.161350998205891</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>1189.427521564199</v>
+        <v>1186.777921036251</v>
       </c>
       <c r="C126" t="n">
-        <v>4893469369.238545</v>
+        <v>3175705524.420867</v>
       </c>
       <c r="D126" t="n">
-        <v>143321475845.9079</v>
+        <v>143142028259.1805</v>
       </c>
       <c r="E126" t="n">
-        <v>54.46662587347387</v>
+        <v>54.99329478055087</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.1252063486426702</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>1186.777921036251</v>
+        <v>1166.989590515662</v>
       </c>
       <c r="C127" t="n">
-        <v>3175705524.420867</v>
+        <v>4281620919.98248</v>
       </c>
       <c r="D127" t="n">
-        <v>143142028259.1805</v>
+        <v>140848456817.4131</v>
       </c>
       <c r="E127" t="n">
-        <v>54.99329478054644</v>
+        <v>56.19003461584448</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.602304696713208</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>1166.989590515662</v>
+        <v>1217.888891664177</v>
       </c>
       <c r="C128" t="n">
-        <v>4281620919.98248</v>
+        <v>6463130153.512681</v>
       </c>
       <c r="D128" t="n">
-        <v>140848456817.4131</v>
+        <v>146802833364.3004</v>
       </c>
       <c r="E128" t="n">
-        <v>56.19003461584007</v>
+        <v>53.9113214990475</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4.227505704664014</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>1217.888891664177</v>
+        <v>1213.343161225522</v>
       </c>
       <c r="C129" t="n">
-        <v>6463130153.512681</v>
+        <v>4086534541.450752</v>
       </c>
       <c r="D129" t="n">
-        <v>146802833364.3004</v>
+        <v>146039250786.0648</v>
       </c>
       <c r="E129" t="n">
-        <v>53.911321499043</v>
+        <v>48.96450764337236</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.5201415808785859</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>1213.343161225522</v>
+        <v>1217.852549710818</v>
       </c>
       <c r="C130" t="n">
-        <v>4086534541.450752</v>
+        <v>5190165001.535945</v>
       </c>
       <c r="D130" t="n">
-        <v>146039250786.0648</v>
+        <v>146741009624.0952</v>
       </c>
       <c r="E130" t="n">
-        <v>48.96450764336757</v>
+        <v>45.33658271783823</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.4805275528689146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>1217.852549710818</v>
+        <v>1220.701744919786</v>
       </c>
       <c r="C131" t="n">
-        <v>5190165001.535945</v>
+        <v>4777025971.87922</v>
       </c>
       <c r="D131" t="n">
-        <v>146741009624.0952</v>
+        <v>147069822795.6539</v>
       </c>
       <c r="E131" t="n">
-        <v>45.3365827178332</v>
+        <v>44.33555782609334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2240772176782757</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>1220.701744919786</v>
+        <v>1221.35953034845</v>
       </c>
       <c r="C132" t="n">
-        <v>4777025971.87922</v>
+        <v>2443348024.215214</v>
       </c>
       <c r="D132" t="n">
-        <v>147069822795.6539</v>
+        <v>147173116811.528</v>
       </c>
       <c r="E132" t="n">
-        <v>44.33555782608827</v>
+        <v>43.97923392218152</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.07023467759095237</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>1221.35953034845</v>
+        <v>1219.286343216304</v>
       </c>
       <c r="C133" t="n">
-        <v>2443348024.215214</v>
+        <v>3694243212.817473</v>
       </c>
       <c r="D133" t="n">
-        <v>147173116811.528</v>
+        <v>146840669268.712</v>
       </c>
       <c r="E133" t="n">
-        <v>43.97923392217644</v>
+        <v>43.48467921851745</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.2258887696464873</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>1219.286343216304</v>
+        <v>1226.253414831006</v>
       </c>
       <c r="C134" t="n">
-        <v>3694243212.817473</v>
+        <v>3071221733.631151</v>
       </c>
       <c r="D134" t="n">
-        <v>146840669268.712</v>
+        <v>147697269147.9465</v>
       </c>
       <c r="E134" t="n">
-        <v>43.48467921851235</v>
+        <v>43.07877221438121</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.5833532927222995</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>1226.253414831006</v>
+        <v>1211.819562063861</v>
       </c>
       <c r="C135" t="n">
-        <v>3071221733.631151</v>
+        <v>4221450706.761293</v>
       </c>
       <c r="D135" t="n">
-        <v>147697269147.9465</v>
+        <v>146030514727.0016</v>
       </c>
       <c r="E135" t="n">
-        <v>43.0787722143761</v>
+        <v>42.60988980359819</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-1.128493729478064</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>1211.819562063861</v>
+        <v>1188.728663882161</v>
       </c>
       <c r="C136" t="n">
-        <v>4221450706.761293</v>
+        <v>5177421363.012343</v>
       </c>
       <c r="D136" t="n">
-        <v>146030514727.0016</v>
+        <v>143241827136.7364</v>
       </c>
       <c r="E136" t="n">
-        <v>42.60988980359304</v>
+        <v>41.65866959802734</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-1.909660864702556</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>1188.728663882161</v>
+        <v>1201.543106059427</v>
       </c>
       <c r="C137" t="n">
-        <v>5177421363.012343</v>
+        <v>4174715683.628057</v>
       </c>
       <c r="D137" t="n">
-        <v>143241827136.7364</v>
+        <v>144831301452.1055</v>
       </c>
       <c r="E137" t="n">
-        <v>41.65866959802212</v>
+        <v>42.07302737884404</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.109643982586062</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>1201.543106059427</v>
+        <v>1199.110497171186</v>
       </c>
       <c r="C138" t="n">
-        <v>4174715683.628057</v>
+        <v>4110733112.810293</v>
       </c>
       <c r="D138" t="n">
-        <v>144831301452.1055</v>
+        <v>144611517916.4068</v>
       </c>
       <c r="E138" t="n">
-        <v>42.07302737883884</v>
+        <v>41.32801884507047</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.1517514055974889</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>1199.110497171186</v>
+        <v>1196.61306480845</v>
       </c>
       <c r="C139" t="n">
-        <v>4110733112.810293</v>
+        <v>2891351007.425189</v>
       </c>
       <c r="D139" t="n">
-        <v>144611517916.4068</v>
+        <v>144188788703.9747</v>
       </c>
       <c r="E139" t="n">
-        <v>41.32801884506503</v>
+        <v>41.35318313329436</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.2923205692899611</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>1196.61306480845</v>
+        <v>1200.65921690107</v>
       </c>
       <c r="C140" t="n">
-        <v>2891351007.425189</v>
+        <v>2179799161.038537</v>
       </c>
       <c r="D140" t="n">
-        <v>144188788703.9747</v>
+        <v>144712215098.1516</v>
       </c>
       <c r="E140" t="n">
-        <v>41.35318313328879</v>
+        <v>40.31416059469262</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.3630146274767432</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>1200.65921690107</v>
+        <v>1214.378945925351</v>
       </c>
       <c r="C141" t="n">
-        <v>2179799161.038537</v>
+        <v>3845095582.093461</v>
       </c>
       <c r="D141" t="n">
-        <v>144712215098.1516</v>
+        <v>146443084804.9009</v>
       </c>
       <c r="E141" t="n">
-        <v>40.31416059468678</v>
+        <v>40.39674914503188</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.196077128371864</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>1214.378945925351</v>
+        <v>1214.760969419338</v>
       </c>
       <c r="C142" t="n">
-        <v>3845095582.093461</v>
+        <v>3385566691.456905</v>
       </c>
       <c r="D142" t="n">
-        <v>146443084804.9009</v>
+        <v>146422424046.4976</v>
       </c>
       <c r="E142" t="n">
-        <v>40.39674914502599</v>
+        <v>39.33686773587512</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.01410838786336521</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>1214.760969419338</v>
+        <v>1256.436603783486</v>
       </c>
       <c r="C143" t="n">
-        <v>3385566691.456905</v>
+        <v>6727208484.546551</v>
       </c>
       <c r="D143" t="n">
-        <v>146422424046.4976</v>
+        <v>151322902029.0838</v>
       </c>
       <c r="E143" t="n">
-        <v>39.33686773586896</v>
+        <v>39.25292717909932</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.34680839666337</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>1256.436603783486</v>
+        <v>1250.792252235591</v>
       </c>
       <c r="C144" t="n">
-        <v>6727208484.546551</v>
+        <v>4052351544.820186</v>
       </c>
       <c r="D144" t="n">
-        <v>151322902029.0838</v>
+        <v>150805231900.3949</v>
       </c>
       <c r="E144" t="n">
-        <v>39.25292717909315</v>
+        <v>38.64498403663404</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.3420963527314469</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>1250.792252235591</v>
+        <v>1270.028610178057</v>
       </c>
       <c r="C145" t="n">
-        <v>4052351544.820186</v>
+        <v>5222706873.557585</v>
       </c>
       <c r="D145" t="n">
-        <v>150805231900.3949</v>
+        <v>153115414332.1746</v>
       </c>
       <c r="E145" t="n">
-        <v>38.64498403662773</v>
+        <v>39.37500377733604</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.531898066577364</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>1270.028610178057</v>
+        <v>1264.83694338372</v>
       </c>
       <c r="C146" t="n">
-        <v>5222706873.557585</v>
+        <v>2439388823.057228</v>
       </c>
       <c r="D146" t="n">
-        <v>153115414332.1746</v>
+        <v>152351777734.9695</v>
       </c>
       <c r="E146" t="n">
-        <v>39.37500377732991</v>
+        <v>38.7455025657179</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.498732672040747</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>1264.83694338372</v>
+        <v>1284.575404134299</v>
       </c>
       <c r="C147" t="n">
-        <v>2439388823.057228</v>
+        <v>3401917835.269408</v>
       </c>
       <c r="D147" t="n">
-        <v>152351777734.9695</v>
+        <v>154857941332.0086</v>
       </c>
       <c r="E147" t="n">
-        <v>38.74550256571165</v>
+        <v>39.54204569474863</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.644984807068561</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>1284.575404134299</v>
+        <v>1321.676571173056</v>
       </c>
       <c r="C148" t="n">
-        <v>3401917835.269408</v>
+        <v>8615288094.160769</v>
       </c>
       <c r="D148" t="n">
-        <v>154857941332.0086</v>
+        <v>159397504473.2767</v>
       </c>
       <c r="E148" t="n">
-        <v>39.54204569474255</v>
+        <v>42.52564918218575</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2.931437097911238</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>1321.676571173056</v>
+        <v>1336.017071771777</v>
       </c>
       <c r="C149" t="n">
-        <v>8615288094.160769</v>
+        <v>6390063040.044838</v>
       </c>
       <c r="D149" t="n">
-        <v>159397504473.2767</v>
+        <v>160999220384.6191</v>
       </c>
       <c r="E149" t="n">
-        <v>42.52564918218017</v>
+        <v>46.26817462491092</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.004856328607673</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>1336.017071771777</v>
+        <v>1389.771662094107</v>
       </c>
       <c r="C150" t="n">
-        <v>6390063040.044838</v>
+        <v>6779329581.863201</v>
       </c>
       <c r="D150" t="n">
-        <v>160999220384.6191</v>
+        <v>167839113151.0311</v>
       </c>
       <c r="E150" t="n">
-        <v>46.26817462490588</v>
+        <v>53.87259308622524</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.248401172422933</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>1389.771662094107</v>
+        <v>1417.134908743914</v>
       </c>
       <c r="C151" t="n">
-        <v>6779329581.863201</v>
+        <v>13360962683.07227</v>
       </c>
       <c r="D151" t="n">
-        <v>167839113151.0311</v>
+        <v>170890542806.2607</v>
       </c>
       <c r="E151" t="n">
-        <v>53.87259308622102</v>
+        <v>61.39577732620757</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.818068266652384</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>1417.134908743914</v>
+        <v>1453.376910208922</v>
       </c>
       <c r="C152" t="n">
-        <v>13360962683.07227</v>
+        <v>8386970426.225097</v>
       </c>
       <c r="D152" t="n">
-        <v>170890542806.2607</v>
+        <v>174798760594.5878</v>
       </c>
       <c r="E152" t="n">
-        <v>61.39577732620395</v>
+        <v>71.70529255636424</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2.286971370181545</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>1453.376910208922</v>
+        <v>1549.111474081304</v>
       </c>
       <c r="C153" t="n">
-        <v>8386970426.225097</v>
+        <v>15505376250.71231</v>
       </c>
       <c r="D153" t="n">
-        <v>174798760594.5878</v>
+        <v>187276048380.949</v>
       </c>
       <c r="E153" t="n">
-        <v>71.70529255636123</v>
+        <v>90.57661836408153</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.138087103088719</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>1549.111474081304</v>
+        <v>1551.324517175301</v>
       </c>
       <c r="C154" t="n">
-        <v>15505376250.71231</v>
+        <v>7074931051.083694</v>
       </c>
       <c r="D154" t="n">
-        <v>187276048380.949</v>
+        <v>186901700956.4831</v>
       </c>
       <c r="E154" t="n">
-        <v>90.57661836407929</v>
+        <v>103.7918576827025</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.1998907109062698</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>1551.324517175301</v>
+        <v>1577.725890482971</v>
       </c>
       <c r="C155" t="n">
-        <v>7074931051.083694</v>
+        <v>9434570734.551754</v>
       </c>
       <c r="D155" t="n">
-        <v>186901700956.4831</v>
+        <v>190122961411.6948</v>
       </c>
       <c r="E155" t="n">
-        <v>103.7918576827008</v>
+        <v>116.975504254934</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.723505157377736</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>1577.725890482971</v>
+        <v>1569.530833227292</v>
       </c>
       <c r="C156" t="n">
-        <v>9434570734.551754</v>
+        <v>8482482040.670269</v>
       </c>
       <c r="D156" t="n">
-        <v>190122961411.6948</v>
+        <v>188982728685.0974</v>
       </c>
       <c r="E156" t="n">
-        <v>116.9755042549326</v>
+        <v>126.7669846115245</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.5997343604007943</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>1569.530833227292</v>
+        <v>1516.555475473704</v>
       </c>
       <c r="C157" t="n">
-        <v>8482482040.670269</v>
+        <v>11809477723.65587</v>
       </c>
       <c r="D157" t="n">
-        <v>188982728685.0974</v>
+        <v>183517931282.5893</v>
       </c>
       <c r="E157" t="n">
-        <v>126.7669846115233</v>
+        <v>130.6835740259255</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-2.891691447430644</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>1516.555475473704</v>
+        <v>1550.508887558564</v>
       </c>
       <c r="C158" t="n">
-        <v>11809477723.65587</v>
+        <v>6871702648.394773</v>
       </c>
       <c r="D158" t="n">
-        <v>183517931282.5893</v>
+        <v>186967330908.3236</v>
       </c>
       <c r="E158" t="n">
-        <v>130.6835740259245</v>
+        <v>136.9308612731406</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.879598141514993</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>1550.508887558564</v>
+        <v>1661.33491934054</v>
       </c>
       <c r="C159" t="n">
-        <v>6871702648.394773</v>
+        <v>9228892411.460192</v>
       </c>
       <c r="D159" t="n">
-        <v>186967330908.3236</v>
+        <v>200011161010.5197</v>
       </c>
       <c r="E159" t="n">
-        <v>136.9308612731397</v>
+        <v>149.1364415400823</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6.976529021849198</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>1661.33491934054</v>
+        <v>1625.909310988656</v>
       </c>
       <c r="C160" t="n">
-        <v>9228892411.460192</v>
+        <v>9663018503.707115</v>
       </c>
       <c r="D160" t="n">
-        <v>200011161010.5197</v>
+        <v>195908718395.0808</v>
       </c>
       <c r="E160" t="n">
-        <v>149.1364415400816</v>
+        <v>156.7976789674235</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.051106845594008</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>1625.909310988656</v>
+        <v>1630.844854940797</v>
       </c>
       <c r="C161" t="n">
-        <v>9663018503.707115</v>
+        <v>8233555835.053316</v>
       </c>
       <c r="D161" t="n">
-        <v>195908718395.0808</v>
+        <v>196512572594.4076</v>
       </c>
       <c r="E161" t="n">
-        <v>156.7976789674231</v>
+        <v>163.2963726266912</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3082324279764626</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>1630.844854940797</v>
+        <v>1632.961726713527</v>
       </c>
       <c r="C162" t="n">
-        <v>8233555835.053316</v>
+        <v>9037743837.862547</v>
       </c>
       <c r="D162" t="n">
-        <v>196512572594.4076</v>
+        <v>196541663696.4374</v>
       </c>
       <c r="E162" t="n">
-        <v>163.2963726266908</v>
+        <v>168.5345881096747</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.01480368489696904</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>1632.961726713527</v>
+        <v>1557.059760872173</v>
       </c>
       <c r="C163" t="n">
-        <v>9037743837.862547</v>
+        <v>9078639809.982983</v>
       </c>
       <c r="D163" t="n">
-        <v>196541663696.4374</v>
+        <v>187270576772.9432</v>
       </c>
       <c r="E163" t="n">
-        <v>168.5345881096744</v>
+        <v>169.2075154158473</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.717110229520372</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>1557.059760872173</v>
+        <v>1614.67718506293</v>
       </c>
       <c r="C164" t="n">
-        <v>9078639809.982983</v>
+        <v>11946053798.49039</v>
       </c>
       <c r="D164" t="n">
-        <v>187270576772.9432</v>
+        <v>194402223992.6201</v>
       </c>
       <c r="E164" t="n">
-        <v>169.2075154158472</v>
+        <v>171.5615306442052</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.808204867294052</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>1614.67718506293</v>
+        <v>1602.846949252319</v>
       </c>
       <c r="C165" t="n">
-        <v>11946053798.49039</v>
+        <v>10076436860.256</v>
       </c>
       <c r="D165" t="n">
-        <v>194402223992.6201</v>
+        <v>193276131177.5974</v>
       </c>
       <c r="E165" t="n">
-        <v>171.5615306442052</v>
+        <v>171.8617018468044</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.5792592244548755</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>1602.846949252319</v>
+        <v>1598.470193545005</v>
       </c>
       <c r="C166" t="n">
-        <v>10076436860.256</v>
+        <v>9593062923.130283</v>
       </c>
       <c r="D166" t="n">
-        <v>193276131177.5974</v>
+        <v>192677648328.4367</v>
       </c>
       <c r="E166" t="n">
-        <v>171.8617018468046</v>
+        <v>169.9389212618529</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.3096517120423803</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>1598.470193545005</v>
+        <v>1573.063439433065</v>
       </c>
       <c r="C167" t="n">
-        <v>9593062923.130283</v>
+        <v>6523949724.808857</v>
       </c>
       <c r="D167" t="n">
-        <v>192677648328.4367</v>
+        <v>189301295262.2017</v>
       </c>
       <c r="E167" t="n">
-        <v>169.9389212618532</v>
+        <v>166.6984935530292</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-1.752332507442522</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>1573.063439433065</v>
+        <v>1646.51599009302</v>
       </c>
       <c r="C168" t="n">
-        <v>6523949724.808857</v>
+        <v>10037370816.30801</v>
       </c>
       <c r="D168" t="n">
-        <v>189301295262.2017</v>
+        <v>198339307428.1037</v>
       </c>
       <c r="E168" t="n">
-        <v>166.6984935530296</v>
+        <v>164.7703430033185</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4.774405876823762</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>1646.51599009302</v>
+        <v>1568.64771349631</v>
       </c>
       <c r="C169" t="n">
-        <v>10037370816.30801</v>
+        <v>10977781767.50235</v>
       </c>
       <c r="D169" t="n">
-        <v>198339307428.1037</v>
+        <v>188787565951.3305</v>
       </c>
       <c r="E169" t="n">
-        <v>164.7703430033191</v>
+        <v>158.8596986851792</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-4.815859045104121</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>1568.64771349631</v>
+        <v>1586.539576583691</v>
       </c>
       <c r="C170" t="n">
-        <v>10977781767.50235</v>
+        <v>7544090211.946499</v>
       </c>
       <c r="D170" t="n">
-        <v>188787565951.3305</v>
+        <v>191042852121.4713</v>
       </c>
       <c r="E170" t="n">
-        <v>158.85969868518</v>
+        <v>152.3420437626169</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.194615841766899</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>1586.539576583691</v>
+        <v>1642.857168158598</v>
       </c>
       <c r="C171" t="n">
-        <v>7544090211.946499</v>
+        <v>9295116915.9373</v>
       </c>
       <c r="D171" t="n">
-        <v>191042852121.4713</v>
+        <v>197724834027.5596</v>
       </c>
       <c r="E171" t="n">
-        <v>152.3420437626179</v>
+        <v>146.9340664024534</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.497635128395027</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>1642.857168158598</v>
+        <v>1648.679684076872</v>
       </c>
       <c r="C172" t="n">
-        <v>9295116915.9373</v>
+        <v>12542560274.34266</v>
       </c>
       <c r="D172" t="n">
-        <v>197724834027.5596</v>
+        <v>198613736403.1506</v>
       </c>
       <c r="E172" t="n">
-        <v>146.9340664024546</v>
+        <v>140.0474967438565</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.4495653669215116</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>1648.679684076872</v>
+        <v>1665.427871223862</v>
       </c>
       <c r="C173" t="n">
-        <v>12542560274.34266</v>
+        <v>9528083087.520357</v>
       </c>
       <c r="D173" t="n">
-        <v>198613736403.1506</v>
+        <v>200784153460.4711</v>
       </c>
       <c r="E173" t="n">
-        <v>140.0474967438579</v>
+        <v>134.8266315133537</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.092782954807814</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>1665.427871223862</v>
+        <v>1667.271692563701</v>
       </c>
       <c r="C174" t="n">
-        <v>9528083087.520357</v>
+        <v>6766208820.07522</v>
       </c>
       <c r="D174" t="n">
-        <v>200784153460.4711</v>
+        <v>201099652782.7474</v>
       </c>
       <c r="E174" t="n">
-        <v>134.8266315133553</v>
+        <v>127.5426263849671</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1571335769475324</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>1667.271692563701</v>
+        <v>1631.372523363653</v>
       </c>
       <c r="C175" t="n">
-        <v>6766208820.07522</v>
+        <v>8211226952.330717</v>
       </c>
       <c r="D175" t="n">
-        <v>201099652782.7474</v>
+        <v>196817854756.2207</v>
       </c>
       <c r="E175" t="n">
-        <v>127.542626384969</v>
+        <v>118.6521915187622</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-2.129192152883752</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>1631.372523363653</v>
+        <v>1617.144163289206</v>
       </c>
       <c r="C176" t="n">
-        <v>8211226952.330717</v>
+        <v>7825100535.008893</v>
       </c>
       <c r="D176" t="n">
-        <v>196817854756.2207</v>
+        <v>194725338782.4147</v>
       </c>
       <c r="E176" t="n">
-        <v>118.6521915187644</v>
+        <v>106.8615154713851</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-1.063173855033528</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>1617.144163289206</v>
+        <v>1672.822677775814</v>
       </c>
       <c r="C177" t="n">
-        <v>7825100535.008893</v>
+        <v>9180247305.88792</v>
       </c>
       <c r="D177" t="n">
-        <v>194725338782.4147</v>
+        <v>201779050385.8602</v>
       </c>
       <c r="E177" t="n">
-        <v>106.8615154713877</v>
+        <v>95.75157653640092</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.62239020743329</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>1672.822677775814</v>
+        <v>1651.40837860238</v>
       </c>
       <c r="C178" t="n">
-        <v>9180247305.88792</v>
+        <v>8766845417.320044</v>
       </c>
       <c r="D178" t="n">
-        <v>201779050385.8602</v>
+        <v>199107556553.1594</v>
       </c>
       <c r="E178" t="n">
-        <v>95.75157653640413</v>
+        <v>84.63366519906471</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.32396987080281</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>1651.40837860238</v>
+        <v>1546.383768658398</v>
       </c>
       <c r="C179" t="n">
-        <v>8766845417.320044</v>
+        <v>12447757846.41687</v>
       </c>
       <c r="D179" t="n">
-        <v>199107556553.1594</v>
+        <v>186306817307.0956</v>
       </c>
       <c r="E179" t="n">
-        <v>84.63366519906863</v>
+        <v>71.37882135886414</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-6.429057474092437</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>1546.383768658398</v>
+        <v>1515.534026861553</v>
       </c>
       <c r="C180" t="n">
-        <v>12447757846.41687</v>
+        <v>9882779899.96751</v>
       </c>
       <c r="D180" t="n">
-        <v>186306817307.0956</v>
+        <v>182839491763.3784</v>
       </c>
       <c r="E180" t="n">
-        <v>71.378821358869</v>
+        <v>62.52538043300389</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-1.861083557668186</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>1515.534026861553</v>
+        <v>1541.968876941271</v>
       </c>
       <c r="C181" t="n">
-        <v>9882779899.96751</v>
+        <v>6070233325.97355</v>
       </c>
       <c r="D181" t="n">
-        <v>182839491763.3784</v>
+        <v>185826666441.3843</v>
       </c>
       <c r="E181" t="n">
-        <v>62.52538043300959</v>
+        <v>54.11362893739676</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.63376885879325</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>1541.968876941271</v>
+        <v>1515.33463118064</v>
       </c>
       <c r="C182" t="n">
-        <v>6070233325.97355</v>
+        <v>6128794710.192691</v>
       </c>
       <c r="D182" t="n">
-        <v>185826666441.3843</v>
+        <v>182722050130.9965</v>
       </c>
       <c r="E182" t="n">
-        <v>54.11362893740354</v>
+        <v>49.48281978245086</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-1.670705485838941</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>1515.33463118064</v>
+        <v>1506.916201013505</v>
       </c>
       <c r="C183" t="n">
-        <v>6128794710.192691</v>
+        <v>11573812955.97068</v>
       </c>
       <c r="D183" t="n">
-        <v>182722050130.9965</v>
+        <v>181589830341.348</v>
       </c>
       <c r="E183" t="n">
-        <v>49.48281978245836</v>
+        <v>51.47016541266203</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.6196404806298572</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>1506.916201013505</v>
+        <v>1556.963484345393</v>
       </c>
       <c r="C184" t="n">
-        <v>11573812955.97068</v>
+        <v>11723184974.30426</v>
       </c>
       <c r="D184" t="n">
-        <v>181589830341.348</v>
+        <v>187619568130.7347</v>
       </c>
       <c r="E184" t="n">
-        <v>51.47016541266917</v>
+        <v>51.31047451774445</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3.320526142929969</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>1556.963484345393</v>
+        <v>1674.858207473528</v>
       </c>
       <c r="C185" t="n">
-        <v>11723184974.30426</v>
+        <v>11079231384.24542</v>
       </c>
       <c r="D185" t="n">
-        <v>187619568130.7347</v>
+        <v>201595282287.4858</v>
       </c>
       <c r="E185" t="n">
-        <v>51.31047451775162</v>
+        <v>53.12132590573565</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.448964037169481</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>1674.858207473528</v>
+        <v>1646.143501886728</v>
       </c>
       <c r="C186" t="n">
-        <v>11079231384.24542</v>
+        <v>13388835215.08776</v>
       </c>
       <c r="D186" t="n">
-        <v>201595282287.4858</v>
+        <v>198370400841.4434</v>
       </c>
       <c r="E186" t="n">
-        <v>53.12132590574272</v>
+        <v>53.46238299723139</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-1.599681009123799</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>1646.143501886728</v>
+        <v>1697.084866573789</v>
       </c>
       <c r="C187" t="n">
-        <v>13388835215.08776</v>
+        <v>10807323083.84196</v>
       </c>
       <c r="D187" t="n">
-        <v>198370400841.4434</v>
+        <v>204534589183.7981</v>
       </c>
       <c r="E187" t="n">
-        <v>53.46238299723854</v>
+        <v>53.64572373509697</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.107413362178835</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>1697.084866573789</v>
+        <v>1692.518962831222</v>
       </c>
       <c r="C188" t="n">
-        <v>10807323083.84196</v>
+        <v>5863446679.020431</v>
       </c>
       <c r="D188" t="n">
-        <v>204534589183.7981</v>
+        <v>203613145994.3606</v>
       </c>
       <c r="E188" t="n">
-        <v>53.64572373510441</v>
+        <v>54.63122304006183</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.4505072677997934</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>1692.518962831222</v>
+        <v>1680.378685700073</v>
       </c>
       <c r="C189" t="n">
-        <v>5863446679.020431</v>
+        <v>7499517187.119554</v>
       </c>
       <c r="D189" t="n">
-        <v>203613145994.3606</v>
+        <v>202999098993.9826</v>
       </c>
       <c r="E189" t="n">
-        <v>54.63122304006938</v>
+        <v>55.31871140295275</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.3015753218581496</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>1680.378685700073</v>
+        <v>1700.198681499266</v>
       </c>
       <c r="C190" t="n">
-        <v>7499517187.119554</v>
+        <v>8435810846.264387</v>
       </c>
       <c r="D190" t="n">
-        <v>202999098993.9826</v>
+        <v>204900256888.8414</v>
       </c>
       <c r="E190" t="n">
-        <v>55.31871140296023</v>
+        <v>57.5072655881388</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.9365351394565291</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>1700.198681499266</v>
+        <v>1656.582369571119</v>
       </c>
       <c r="C191" t="n">
-        <v>8435810846.264387</v>
+        <v>9728814194.484383</v>
       </c>
       <c r="D191" t="n">
-        <v>204900256888.8414</v>
+        <v>199387951962.0551</v>
       </c>
       <c r="E191" t="n">
-        <v>57.50726558814613</v>
+        <v>57.92533616101286</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-2.690238172701176</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>1656.582369571119</v>
+        <v>1643.173393745349</v>
       </c>
       <c r="C192" t="n">
-        <v>9728814194.484383</v>
+        <v>9836391621.850903</v>
       </c>
       <c r="D192" t="n">
-        <v>199387951962.0551</v>
+        <v>198153971276.3559</v>
       </c>
       <c r="E192" t="n">
-        <v>57.92533616102018</v>
+        <v>58.05250805279869</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.6188842773880099</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>1643.173393745349</v>
+        <v>1651.850006691427</v>
       </c>
       <c r="C193" t="n">
-        <v>9836391621.850903</v>
+        <v>9698749201.902168</v>
       </c>
       <c r="D193" t="n">
-        <v>198153971276.3559</v>
+        <v>198619189860.0559</v>
       </c>
       <c r="E193" t="n">
-        <v>58.05250805280602</v>
+        <v>57.23484865176972</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.2347763109179279</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>1651.850006691427</v>
+        <v>1608.103493653836</v>
       </c>
       <c r="C194" t="n">
-        <v>9698749201.902168</v>
+        <v>9609840835.076471</v>
       </c>
       <c r="D194" t="n">
-        <v>198619189860.0559</v>
+        <v>193773223390.3348</v>
       </c>
       <c r="E194" t="n">
-        <v>57.23484865177731</v>
+        <v>57.27030240577263</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-2.439827930591965</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>1608.103493653836</v>
+        <v>1593.951973790846</v>
       </c>
       <c r="C195" t="n">
-        <v>9609840835.076471</v>
+        <v>6117521125.045025</v>
       </c>
       <c r="D195" t="n">
-        <v>193773223390.3348</v>
+        <v>192056375721.2107</v>
       </c>
       <c r="E195" t="n">
-        <v>57.2703024057802</v>
+        <v>57.38633774284522</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.8860087266369554</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>1593.951973790846</v>
+        <v>1640.582710194306</v>
       </c>
       <c r="C196" t="n">
-        <v>6117521125.045025</v>
+        <v>6357994998.206232</v>
       </c>
       <c r="D196" t="n">
-        <v>192056375721.2107</v>
+        <v>197696596339.3676</v>
       </c>
       <c r="E196" t="n">
-        <v>57.38633774285277</v>
+        <v>57.35813363644503</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.936752605570492</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>1640.582710194306</v>
+        <v>1633.976628983382</v>
       </c>
       <c r="C197" t="n">
-        <v>6357994998.206232</v>
+        <v>7916573299.24559</v>
       </c>
       <c r="D197" t="n">
-        <v>197696596339.3676</v>
+        <v>197018105507.0607</v>
       </c>
       <c r="E197" t="n">
-        <v>57.35813363645264</v>
+        <v>56.66409408397319</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.3431980341948693</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>1633.976628983382</v>
+        <v>1606.632639454843</v>
       </c>
       <c r="C198" t="n">
-        <v>7916573299.24559</v>
+        <v>6883711561.9226</v>
       </c>
       <c r="D198" t="n">
-        <v>197018105507.0607</v>
+        <v>193276888983.6779</v>
       </c>
       <c r="E198" t="n">
-        <v>56.664094083981</v>
+        <v>56.57018565062221</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-1.898920159522477</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>1606.632639454843</v>
+        <v>1663.925777294461</v>
       </c>
       <c r="C199" t="n">
-        <v>6883711561.9226</v>
+        <v>8672222866.055677</v>
       </c>
       <c r="D199" t="n">
-        <v>193276888983.6779</v>
+        <v>200476156508.3419</v>
       </c>
       <c r="E199" t="n">
-        <v>56.57018565062996</v>
+        <v>56.14199570536283</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3.724846546589444</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>1663.925777294461</v>
+        <v>1647.664666907772</v>
       </c>
       <c r="C200" t="n">
-        <v>8672222866.055677</v>
+        <v>7930395056.206914</v>
       </c>
       <c r="D200" t="n">
-        <v>200476156508.3419</v>
+        <v>198520753673.5454</v>
       </c>
       <c r="E200" t="n">
-        <v>56.1419957053708</v>
+        <v>55.79793799192299</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.9753792515047155</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>1647.664666907772</v>
+        <v>1570.668210599776</v>
       </c>
       <c r="C201" t="n">
-        <v>7930395056.206914</v>
+        <v>11179316252.20772</v>
       </c>
       <c r="D201" t="n">
-        <v>198520753673.5454</v>
+        <v>189178795460.2609</v>
       </c>
       <c r="E201" t="n">
-        <v>55.79793799193111</v>
+        <v>56.6520269422786</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4.705784176422567</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>1570.668210599776</v>
+        <v>1568.495601056219</v>
       </c>
       <c r="C202" t="n">
-        <v>11179316252.20772</v>
+        <v>4800994312.370927</v>
       </c>
       <c r="D202" t="n">
-        <v>189178795460.2609</v>
+        <v>189002414068.6852</v>
       </c>
       <c r="E202" t="n">
-        <v>56.65202694228648</v>
+        <v>57.37591780953392</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.09323528630499345</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>1568.495601056219</v>
+        <v>1563.22566200563</v>
       </c>
       <c r="C203" t="n">
-        <v>4800994312.370927</v>
+        <v>62172854406.22754</v>
       </c>
       <c r="D203" t="n">
-        <v>189002414068.6852</v>
+        <v>188337456156.2138</v>
       </c>
       <c r="E203" t="n">
-        <v>57.37591780954158</v>
+        <v>57.75230216699776</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.3518250895090391</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>1563.22566200563</v>
+        <v>1567.350146525219</v>
       </c>
       <c r="C204" t="n">
-        <v>62172854406.22754</v>
+        <v>6627693313.532333</v>
       </c>
       <c r="D204" t="n">
-        <v>188337456156.2138</v>
+        <v>188803304807.8448</v>
       </c>
       <c r="E204" t="n">
-        <v>57.75230216700521</v>
+        <v>57.74006656046488</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.2473478516374028</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>1567.350146525219</v>
+        <v>1563.813182247501</v>
       </c>
       <c r="C205" t="n">
-        <v>6627693313.532333</v>
+        <v>8523808476.527845</v>
       </c>
       <c r="D205" t="n">
-        <v>188803304807.8448</v>
+        <v>187945419858.8607</v>
       </c>
       <c r="E205" t="n">
-        <v>57.74006656047218</v>
+        <v>58.41083725499387</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.4543802609054737</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>1563.813182247501</v>
+        <v>1535.26025209711</v>
       </c>
       <c r="C206" t="n">
-        <v>8523808476.527845</v>
+        <v>11881879818.72524</v>
       </c>
       <c r="D206" t="n">
-        <v>187945419858.8607</v>
+        <v>185138878803.2572</v>
       </c>
       <c r="E206" t="n">
-        <v>58.41083725500097</v>
+        <v>60.10812667908763</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-1.493274514330334</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>1535.26025209711</v>
+        <v>1440.167661880184</v>
       </c>
       <c r="C207" t="n">
-        <v>11881879818.72524</v>
+        <v>10861201441.13542</v>
       </c>
       <c r="D207" t="n">
-        <v>185138878803.2572</v>
+        <v>173232609854.2885</v>
       </c>
       <c r="E207" t="n">
-        <v>60.10812667909439</v>
+        <v>66.45773318990486</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-6.430993331023238</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>1440.167661880184</v>
+        <v>1429.603169104185</v>
       </c>
       <c r="C208" t="n">
-        <v>10861201441.13542</v>
+        <v>14696381616.84098</v>
       </c>
       <c r="D208" t="n">
-        <v>173232609854.2885</v>
+        <v>172474466355.7147</v>
       </c>
       <c r="E208" t="n">
-        <v>66.45773318991063</v>
+        <v>72.88017846635664</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.4376447940208972</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>1429.603169104185</v>
+        <v>1474.40324440156</v>
       </c>
       <c r="C209" t="n">
-        <v>14696381616.84098</v>
+        <v>18345198261.39598</v>
       </c>
       <c r="D209" t="n">
-        <v>172474466355.7147</v>
+        <v>176915178456.4187</v>
       </c>
       <c r="E209" t="n">
-        <v>72.88017846636161</v>
+        <v>75.67765301118526</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2.574706966505635</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>1474.40324440156</v>
+        <v>1588.196802053047</v>
       </c>
       <c r="C210" t="n">
-        <v>18345198261.39598</v>
+        <v>13967891188.5</v>
       </c>
       <c r="D210" t="n">
-        <v>176915178456.4187</v>
+        <v>190440681263.2129</v>
       </c>
       <c r="E210" t="n">
-        <v>75.67765301118995</v>
+        <v>74.26539897912676</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7.645190720662787</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>1588.196802053047</v>
+        <v>1678.915634393308</v>
       </c>
       <c r="C211" t="n">
-        <v>13967891188.5</v>
+        <v>65211714924.50838</v>
       </c>
       <c r="D211" t="n">
-        <v>190440681263.2129</v>
+        <v>202294154847.0903</v>
       </c>
       <c r="E211" t="n">
-        <v>74.26539897913163</v>
+        <v>75.07657731352461</v>
+      </c>
+      <c r="F211" t="n">
+        <v>6.22423397419718</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>1678.915634393308</v>
+        <v>1708.300897366666</v>
       </c>
       <c r="C212" t="n">
-        <v>65211714924.50838</v>
+        <v>19833762797.58361</v>
       </c>
       <c r="D212" t="n">
-        <v>202294154847.0903</v>
+        <v>205738833552.6543</v>
       </c>
       <c r="E212" t="n">
-        <v>75.07657731352957</v>
+        <v>75.84405531589529</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.702806839954318</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>1708.300897366666</v>
+        <v>1658.070108566312</v>
       </c>
       <c r="C213" t="n">
-        <v>19833762797.58361</v>
+        <v>17257648020.36215</v>
       </c>
       <c r="D213" t="n">
-        <v>205738833552.6543</v>
+        <v>199607487558.3324</v>
       </c>
       <c r="E213" t="n">
-        <v>75.84405531590041</v>
+        <v>74.01062024271468</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-2.980159792124382</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>1658.070108566312</v>
+        <v>1679.79247620809</v>
       </c>
       <c r="C214" t="n">
-        <v>17257648020.36215</v>
+        <v>30201930394.76128</v>
       </c>
       <c r="D214" t="n">
-        <v>199607487558.3324</v>
+        <v>202411234958.1569</v>
       </c>
       <c r="E214" t="n">
-        <v>74.01062024272009</v>
+        <v>74.29405122904174</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.404630374401727</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>1679.79247620809</v>
+        <v>1793.298801734233</v>
       </c>
       <c r="C215" t="n">
-        <v>30201930394.76128</v>
+        <v>14459727611.04181</v>
       </c>
       <c r="D215" t="n">
-        <v>202411234958.1569</v>
+        <v>215660560704.7752</v>
       </c>
       <c r="E215" t="n">
-        <v>74.29405122904727</v>
+        <v>80.45104622665026</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6.545746212831149</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>1793.298801734233</v>
+        <v>1769.425326912385</v>
       </c>
       <c r="C216" t="n">
-        <v>14459727611.04181</v>
+        <v>11976182095.29605</v>
       </c>
       <c r="D216" t="n">
-        <v>215660560704.7752</v>
+        <v>213123927233.328</v>
       </c>
       <c r="E216" t="n">
-        <v>80.45104622665548</v>
+        <v>84.88974809577807</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-1.1762157453164</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>1769.425326912385</v>
+        <v>1801.367419011459</v>
       </c>
       <c r="C217" t="n">
-        <v>11976182095.29605</v>
+        <v>10745813975.10349</v>
       </c>
       <c r="D217" t="n">
-        <v>213123927233.328</v>
+        <v>217844457987.9951</v>
       </c>
       <c r="E217" t="n">
-        <v>84.88974809578315</v>
+        <v>89.98795834936283</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.21492293988137</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>1801.367419011459</v>
+        <v>1744.441459960018</v>
       </c>
       <c r="C218" t="n">
-        <v>10745813975.10349</v>
+        <v>12973595973.35999</v>
       </c>
       <c r="D218" t="n">
-        <v>217844457987.9951</v>
+        <v>209763828559.9232</v>
       </c>
       <c r="E218" t="n">
-        <v>89.98795834936772</v>
+        <v>91.77322290856216</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-3.70935735648471</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>1744.441459960018</v>
+        <v>1811.411243668274</v>
       </c>
       <c r="C219" t="n">
-        <v>12973595973.35999</v>
+        <v>10831022955.19994</v>
       </c>
       <c r="D219" t="n">
-        <v>209763828559.9232</v>
+        <v>218008486913.6836</v>
       </c>
       <c r="E219" t="n">
-        <v>91.77322290856701</v>
+        <v>97.26973968789034</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3.930448071224624</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>1811.411243668274</v>
+        <v>1747.640028114114</v>
       </c>
       <c r="C220" t="n">
-        <v>10831022955.19994</v>
+        <v>13820716099.50186</v>
       </c>
       <c r="D220" t="n">
-        <v>218008486913.6836</v>
+        <v>210285658211.0843</v>
       </c>
       <c r="E220" t="n">
-        <v>97.26973968789505</v>
+        <v>98.77234418981217</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-3.542444063499672</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>1747.640028114114</v>
+        <v>1824.956657894933</v>
       </c>
       <c r="C221" t="n">
-        <v>13820716099.50186</v>
+        <v>10980967034.93774</v>
       </c>
       <c r="D221" t="n">
-        <v>210285658211.0843</v>
+        <v>219518418514.1925</v>
       </c>
       <c r="E221" t="n">
-        <v>98.77234418981688</v>
+        <v>104.6677869336448</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4.390580119277709</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>1824.956657894933</v>
+        <v>1751.219407826173</v>
       </c>
       <c r="C222" t="n">
-        <v>10980967034.93774</v>
+        <v>11601017881.78658</v>
       </c>
       <c r="D222" t="n">
-        <v>219518418514.1925</v>
+        <v>212072713258.261</v>
       </c>
       <c r="E222" t="n">
-        <v>104.6677869336494</v>
+        <v>106.6113084075681</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-3.391836232388901</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>1751.219407826173</v>
+        <v>1753.982636507409</v>
       </c>
       <c r="C223" t="n">
-        <v>11601017881.78658</v>
+        <v>8023849174.389528</v>
       </c>
       <c r="D223" t="n">
-        <v>212072713258.261</v>
+        <v>211355889911.3326</v>
       </c>
       <c r="E223" t="n">
-        <v>106.6113084075727</v>
+        <v>108.4884244409102</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.3380082877778801</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>1753.982636507409</v>
+        <v>1776.867690456723</v>
       </c>
       <c r="C224" t="n">
-        <v>8023849174.389528</v>
+        <v>8417258785.455161</v>
       </c>
       <c r="D224" t="n">
-        <v>211355889911.3326</v>
+        <v>214528709136.8291</v>
       </c>
       <c r="E224" t="n">
-        <v>108.4884244409149</v>
+        <v>110.7383070444923</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.501173791195276</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>1776.867690456723</v>
+        <v>1719.170972674861</v>
       </c>
       <c r="C225" t="n">
-        <v>8417258785.455161</v>
+        <v>9757415238.165146</v>
       </c>
       <c r="D225" t="n">
-        <v>214528709136.8291</v>
+        <v>206685090340.5369</v>
       </c>
       <c r="E225" t="n">
-        <v>110.738307044497</v>
+        <v>110.7988924297301</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-3.656209384679332</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>1719.170972674861</v>
+        <v>1776.043639329832</v>
       </c>
       <c r="C226" t="n">
-        <v>9757415238.165146</v>
+        <v>9548011563.716631</v>
       </c>
       <c r="D226" t="n">
-        <v>206685090340.5369</v>
+        <v>213909228254.6471</v>
       </c>
       <c r="E226" t="n">
-        <v>110.7988924297349</v>
+        <v>112.8441275638881</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3.495239014196705</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>1776.043639329832</v>
+        <v>1795.536947827324</v>
       </c>
       <c r="C227" t="n">
-        <v>9548011563.716631</v>
+        <v>10395388838.76884</v>
       </c>
       <c r="D227" t="n">
-        <v>213909228254.6471</v>
+        <v>216268184816.8208</v>
       </c>
       <c r="E227" t="n">
-        <v>112.8441275638929</v>
+        <v>115.3081346650601</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.102783915131278</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>1795.536947827324</v>
+        <v>1792.908578308043</v>
       </c>
       <c r="C228" t="n">
-        <v>10395388838.76884</v>
+        <v>10958214915.4279</v>
       </c>
       <c r="D228" t="n">
-        <v>216268184816.8208</v>
+        <v>216024475834.1531</v>
       </c>
       <c r="E228" t="n">
-        <v>115.3081346650649</v>
+        <v>116.949299720086</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.1126883193078632</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>1792.908578308043</v>
+        <v>1824.020005552818</v>
       </c>
       <c r="C229" t="n">
-        <v>10958214915.4279</v>
+        <v>10329452626.6318</v>
       </c>
       <c r="D229" t="n">
-        <v>216024475834.1531</v>
+        <v>219903281108.4414</v>
       </c>
       <c r="E229" t="n">
-        <v>116.9492997200909</v>
+        <v>120.120918948821</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.795539722668371</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>1824.020005552818</v>
+        <v>1823.000379825308</v>
       </c>
       <c r="C230" t="n">
-        <v>10329452626.6318</v>
+        <v>6199278060.289369</v>
       </c>
       <c r="D230" t="n">
-        <v>219903281108.4414</v>
+        <v>219561711559.01</v>
       </c>
       <c r="E230" t="n">
-        <v>120.120918948826</v>
+        <v>122.8024155520452</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.1553271727960381</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>1823.000379825308</v>
+        <v>1797.736988393855</v>
       </c>
       <c r="C231" t="n">
-        <v>6199278060.289369</v>
+        <v>6679784659.59878</v>
       </c>
       <c r="D231" t="n">
-        <v>219561711559.01</v>
+        <v>216494189054.4792</v>
       </c>
       <c r="E231" t="n">
-        <v>122.8024155520502</v>
+        <v>122.5492147730404</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-1.397111765411951</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>1797.736988393855</v>
+        <v>1810.466255484756</v>
       </c>
       <c r="C232" t="n">
-        <v>6679784659.59878</v>
+        <v>11141583996.17221</v>
       </c>
       <c r="D232" t="n">
-        <v>216494189054.4792</v>
+        <v>218499091537.9477</v>
       </c>
       <c r="E232" t="n">
-        <v>122.5492147730456</v>
+        <v>122.105446370367</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.9260768116801543</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>1810.466255484756</v>
+        <v>1871.333525898643</v>
       </c>
       <c r="C233" t="n">
-        <v>11141583996.17221</v>
+        <v>11580514457.96186</v>
       </c>
       <c r="D233" t="n">
-        <v>218499091537.9477</v>
+        <v>225257854355.9486</v>
       </c>
       <c r="E233" t="n">
-        <v>122.1054463703723</v>
+        <v>123.1558972196653</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3.093268155225748</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>1871.333525898643</v>
+        <v>1911.338689951751</v>
       </c>
       <c r="C234" t="n">
-        <v>11580514457.96186</v>
+        <v>11586484696.70598</v>
       </c>
       <c r="D234" t="n">
-        <v>225257854355.9486</v>
+        <v>230370056366.2714</v>
       </c>
       <c r="E234" t="n">
-        <v>123.1558972196708</v>
+        <v>125.38194662954</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2.269488904144734</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>1911.338689951751</v>
+        <v>1872.246682367909</v>
       </c>
       <c r="C235" t="n">
-        <v>11586484696.70598</v>
+        <v>9208408844.045069</v>
       </c>
       <c r="D235" t="n">
-        <v>230370056366.2714</v>
+        <v>225549620778.9139</v>
       </c>
       <c r="E235" t="n">
-        <v>125.3819466295456</v>
+        <v>124.6275288313228</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-2.092474891655782</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>1872.246682367909</v>
+        <v>1866.657544787415</v>
       </c>
       <c r="C236" t="n">
-        <v>9208408844.045069</v>
+        <v>9298216041.371656</v>
       </c>
       <c r="D236" t="n">
-        <v>225549620778.9139</v>
+        <v>224884695655.0538</v>
       </c>
       <c r="E236" t="n">
-        <v>124.6275288313286</v>
+        <v>121.2249411390286</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.2948021466690043</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>1866.657544787415</v>
+        <v>1851.050671070621</v>
       </c>
       <c r="C237" t="n">
-        <v>9298216041.371656</v>
+        <v>5970294474.952573</v>
       </c>
       <c r="D237" t="n">
-        <v>224884695655.0538</v>
+        <v>223169245107.383</v>
       </c>
       <c r="E237" t="n">
-        <v>121.2249411390348</v>
+        <v>108.3481106747042</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.76281337984071</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>1851.050671070621</v>
+        <v>1859.940387287814</v>
       </c>
       <c r="C238" t="n">
-        <v>5970294474.952573</v>
+        <v>7405572878.99046</v>
       </c>
       <c r="D238" t="n">
-        <v>223169245107.383</v>
+        <v>224219517643.8137</v>
       </c>
       <c r="E238" t="n">
-        <v>108.3481106747114</v>
+        <v>90.5661028972231</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.4706170583340219</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>1859.940387287814</v>
+        <v>1909.882060941591</v>
       </c>
       <c r="C239" t="n">
-        <v>7405572878.99046</v>
+        <v>9639736045.970774</v>
       </c>
       <c r="D239" t="n">
-        <v>224219517643.8137</v>
+        <v>230201702660.8635</v>
       </c>
       <c r="E239" t="n">
-        <v>90.56610289723207</v>
+        <v>74.91441956230435</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.668003695625143</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>1909.882060941591</v>
+        <v>1892.938911069582</v>
       </c>
       <c r="C240" t="n">
-        <v>9639736045.970774</v>
+        <v>10245367683.71216</v>
       </c>
       <c r="D240" t="n">
-        <v>230201702660.8635</v>
+        <v>227988460702.9362</v>
       </c>
       <c r="E240" t="n">
-        <v>74.91441956231562</v>
+        <v>67.51402942874746</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.9614359634810721</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>1892.938911069582</v>
+        <v>1920.223031193122</v>
       </c>
       <c r="C241" t="n">
-        <v>10245367683.71216</v>
+        <v>13152150835.22722</v>
       </c>
       <c r="D241" t="n">
-        <v>227988460702.9362</v>
+        <v>231476399968.9067</v>
       </c>
       <c r="E241" t="n">
-        <v>67.5140294287603</v>
+        <v>67.48306357222522</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.529875352119348</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>1920.223031193122</v>
+        <v>2012.785415162006</v>
       </c>
       <c r="C242" t="n">
-        <v>13152150835.22722</v>
+        <v>13956404022.5792</v>
       </c>
       <c r="D242" t="n">
-        <v>231476399968.9067</v>
+        <v>242284529486.3431</v>
       </c>
       <c r="E242" t="n">
-        <v>67.48306357223829</v>
+        <v>75.08699519836516</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4.669214450755321</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>2012.785415162006</v>
+        <v>2102.946188294908</v>
       </c>
       <c r="C243" t="n">
-        <v>13956404022.5792</v>
+        <v>17899705467.09288</v>
       </c>
       <c r="D243" t="n">
-        <v>242284529486.3431</v>
+        <v>252719453976.0147</v>
       </c>
       <c r="E243" t="n">
-        <v>75.08699519837717</v>
+        <v>86.32128385850203</v>
+      </c>
+      <c r="F243" t="n">
+        <v>4.30688848016596</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>2102.946188294908</v>
+        <v>2093.166331331955</v>
       </c>
       <c r="C244" t="n">
-        <v>17899705467.09288</v>
+        <v>9272832786.084044</v>
       </c>
       <c r="D244" t="n">
-        <v>252719453976.0147</v>
+        <v>251586840869.9989</v>
       </c>
       <c r="E244" t="n">
-        <v>86.32128385851274</v>
+        <v>94.3329719905005</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.4481701302359364</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>2093.166331331955</v>
+        <v>2118.598789153885</v>
       </c>
       <c r="C245" t="n">
-        <v>9272832786.084044</v>
+        <v>8879608633.84169</v>
       </c>
       <c r="D245" t="n">
-        <v>251586840869.9989</v>
+        <v>253507799906.4971</v>
       </c>
       <c r="E245" t="n">
-        <v>94.33297199051054</v>
+        <v>106.3954694745544</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.7635371666719459</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>2118.598789153885</v>
+        <v>2077.535664637183</v>
       </c>
       <c r="C246" t="n">
-        <v>8879608633.84169</v>
+        <v>10818847581.54074</v>
       </c>
       <c r="D246" t="n">
-        <v>253507799906.4971</v>
+        <v>247900016291.376</v>
       </c>
       <c r="E246" t="n">
-        <v>106.3954694745634</v>
+        <v>112.6902606639549</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-2.21207537487581</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>2077.535664637183</v>
+        <v>2103.278813592151</v>
       </c>
       <c r="C247" t="n">
-        <v>10818847581.54074</v>
+        <v>10121134598.14348</v>
       </c>
       <c r="D247" t="n">
-        <v>247900016291.376</v>
+        <v>251100187595.887</v>
       </c>
       <c r="E247" t="n">
-        <v>112.6902606639635</v>
+        <v>120.1636414893663</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1.290912099315689</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>2103.278813592151</v>
+        <v>1936.425920798363</v>
       </c>
       <c r="C248" t="n">
-        <v>10121134598.14348</v>
+        <v>15695628542.02445</v>
       </c>
       <c r="D248" t="n">
-        <v>251100187595.887</v>
+        <v>231458322403.7939</v>
       </c>
       <c r="E248" t="n">
-        <v>120.1636414893745</v>
+        <v>118.1331986318945</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-7.822321990338033</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>1936.425920798363</v>
+        <v>1943.435598192578</v>
       </c>
       <c r="C249" t="n">
-        <v>15695628542.02445</v>
+        <v>12422352272.16522</v>
       </c>
       <c r="D249" t="n">
-        <v>231458322403.7939</v>
+        <v>233965107542.7419</v>
       </c>
       <c r="E249" t="n">
-        <v>118.133198631903</v>
+        <v>117.9421295981212</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1.083039535115438</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>1943.435598192578</v>
+        <v>1850.149738424215</v>
       </c>
       <c r="C250" t="n">
-        <v>12422352272.16522</v>
+        <v>13427480065.76744</v>
       </c>
       <c r="D250" t="n">
-        <v>233965107542.7419</v>
+        <v>222536195564.3714</v>
       </c>
       <c r="E250" t="n">
-        <v>117.9421295981297</v>
+        <v>115.2931933609833</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-4.884878817360672</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>1850.149738424215</v>
+        <v>1877.541328061146</v>
       </c>
       <c r="C251" t="n">
-        <v>13427480065.76744</v>
+        <v>7809497062.825459</v>
       </c>
       <c r="D251" t="n">
-        <v>222536195564.3714</v>
+        <v>226130094815.9329</v>
       </c>
       <c r="E251" t="n">
-        <v>115.2931933609921</v>
+        <v>114.6999666778736</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.614972900227341</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>1877.541328061146</v>
+        <v>1863.639142214224</v>
       </c>
       <c r="C252" t="n">
-        <v>7809497062.825459</v>
+        <v>7375382210.29527</v>
       </c>
       <c r="D252" t="n">
-        <v>226130094815.9329</v>
+        <v>224130103074.6425</v>
       </c>
       <c r="E252" t="n">
-        <v>114.6999666778825</v>
+        <v>111.8183102466113</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.8844429764726103</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>1863.639142214224</v>
+        <v>1842.630792087157</v>
       </c>
       <c r="C253" t="n">
-        <v>7375382210.29527</v>
+        <v>9177916724.086399</v>
       </c>
       <c r="D253" t="n">
-        <v>224130103074.6425</v>
+        <v>221819334333.2904</v>
       </c>
       <c r="E253" t="n">
-        <v>111.8183102466204</v>
+        <v>109.1437248595339</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-1.030994368740634</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>1842.630792087157</v>
+        <v>1870.565223123027</v>
       </c>
       <c r="C254" t="n">
-        <v>9177916724.086399</v>
+        <v>9669740943.905441</v>
       </c>
       <c r="D254" t="n">
-        <v>221819334333.2904</v>
+        <v>225096171581.735</v>
       </c>
       <c r="E254" t="n">
-        <v>109.1437248595433</v>
+        <v>106.9217729381071</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1.477255018501289</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>1870.565223123027</v>
+        <v>1867.589325012487</v>
       </c>
       <c r="C255" t="n">
-        <v>9669740943.905441</v>
+        <v>16137081936.11856</v>
       </c>
       <c r="D255" t="n">
-        <v>225096171581.735</v>
+        <v>224807445929.1713</v>
       </c>
       <c r="E255" t="n">
-        <v>106.9217729381167</v>
+        <v>101.5873084126408</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-0.128267686889072</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>1867.589325012487</v>
+        <v>1910.456779102895</v>
       </c>
       <c r="C256" t="n">
-        <v>16137081936.11856</v>
+        <v>17307261170.94721</v>
       </c>
       <c r="D256" t="n">
-        <v>224807445929.1713</v>
+        <v>229940294581.2185</v>
       </c>
       <c r="E256" t="n">
-        <v>101.5873084126511</v>
+        <v>98.64708664617335</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2.283220037856037</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>1910.456779102895</v>
+        <v>1894.428083950107</v>
       </c>
       <c r="C257" t="n">
-        <v>17307261170.94721</v>
+        <v>8853391784.29081</v>
       </c>
       <c r="D257" t="n">
-        <v>229940294581.2185</v>
+        <v>228152292773.1309</v>
       </c>
       <c r="E257" t="n">
-        <v>98.64708664618404</v>
+        <v>96.3503858144712</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.777593945134325</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>1894.428083950107</v>
+        <v>1905.27385227321</v>
       </c>
       <c r="C258" t="n">
-        <v>8853391784.29081</v>
+        <v>5262009753.405011</v>
       </c>
       <c r="D258" t="n">
-        <v>228152292773.1309</v>
+        <v>229429843509.54</v>
       </c>
       <c r="E258" t="n">
-        <v>96.35038581448219</v>
+        <v>93.69674514705109</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.5599552478218861</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>1905.27385227321</v>
+        <v>1885.391935336922</v>
       </c>
       <c r="C259" t="n">
-        <v>5262009753.405011</v>
+        <v>7328083478.977482</v>
       </c>
       <c r="D259" t="n">
-        <v>229429843509.54</v>
+        <v>227186562478.899</v>
       </c>
       <c r="E259" t="n">
-        <v>93.6967451470625</v>
+        <v>92.27751613295054</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-0.9777633965686428</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>1885.391935336922</v>
+        <v>1832.725799406749</v>
       </c>
       <c r="C260" t="n">
-        <v>7328083478.977482</v>
+        <v>9673378163.522745</v>
       </c>
       <c r="D260" t="n">
-        <v>227186562478.899</v>
+        <v>220608989107.972</v>
       </c>
       <c r="E260" t="n">
-        <v>92.27751613296221</v>
+        <v>91.94843896300461</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-2.895229937526755</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>1832.725799406749</v>
+        <v>1870.828572787594</v>
       </c>
       <c r="C261" t="n">
-        <v>9673378163.522745</v>
+        <v>8338110887.912115</v>
       </c>
       <c r="D261" t="n">
-        <v>220608989107.972</v>
+        <v>225192198744.2643</v>
       </c>
       <c r="E261" t="n">
-        <v>91.94843896301632</v>
+        <v>89.57841822396072</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2.077526239898186</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>1870.828572787594</v>
+        <v>1903.728210735278</v>
       </c>
       <c r="C262" t="n">
-        <v>8338110887.912115</v>
+        <v>8855867548.894463</v>
       </c>
       <c r="D262" t="n">
-        <v>225192198744.2643</v>
+        <v>229058202737.1404</v>
       </c>
       <c r="E262" t="n">
-        <v>89.57841822397282</v>
+        <v>87.2023677935326</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.716757513996514</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>1903.728210735278</v>
+        <v>1877.401195052536</v>
       </c>
       <c r="C263" t="n">
-        <v>8855867548.894463</v>
+        <v>7156399180.62065</v>
       </c>
       <c r="D263" t="n">
-        <v>229058202737.1404</v>
+        <v>226033834100.1215</v>
       </c>
       <c r="E263" t="n">
-        <v>87.20236779354512</v>
+        <v>87.0830582390235</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-1.320349413764277</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>1877.401195052536</v>
+        <v>1993.612965747434</v>
       </c>
       <c r="C264" t="n">
-        <v>7156399180.62065</v>
+        <v>10662067255.96863</v>
       </c>
       <c r="D264" t="n">
-        <v>226033834100.1215</v>
+        <v>239911504424.294</v>
       </c>
       <c r="E264" t="n">
-        <v>87.08305823903605</v>
+        <v>87.95649423486921</v>
+      </c>
+      <c r="F264" t="n">
+        <v>6.139642934174816</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>1993.612965747434</v>
+        <v>1900.410599025731</v>
       </c>
       <c r="C265" t="n">
-        <v>10662067255.96863</v>
+        <v>11135926723.29712</v>
       </c>
       <c r="D265" t="n">
-        <v>239911504424.294</v>
+        <v>228369002903.6794</v>
       </c>
       <c r="E265" t="n">
-        <v>87.95649423488173</v>
+        <v>87.50214258695546</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-4.81114965633378</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>1900.410599025731</v>
+        <v>1895.230148054891</v>
       </c>
       <c r="C266" t="n">
-        <v>11135926723.29712</v>
+        <v>6233921635.46938</v>
       </c>
       <c r="D266" t="n">
-        <v>228369002903.6794</v>
+        <v>228246618295.4416</v>
       </c>
       <c r="E266" t="n">
-        <v>87.50214258696808</v>
+        <v>86.96708577093654</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.05359072671060616</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>1895.230148054891</v>
+        <v>1849.288629562528</v>
       </c>
       <c r="C267" t="n">
-        <v>6233921635.46938</v>
+        <v>11496171817.8335</v>
       </c>
       <c r="D267" t="n">
-        <v>228246618295.4416</v>
+        <v>222406833247.6045</v>
       </c>
       <c r="E267" t="n">
-        <v>86.96708577094927</v>
+        <v>87.02197908216274</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-2.558541761297017</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>1849.288629562528</v>
+        <v>1846.064264023148</v>
       </c>
       <c r="C268" t="n">
-        <v>11496171817.8335</v>
+        <v>6373057170.18455</v>
       </c>
       <c r="D268" t="n">
-        <v>222406833247.6045</v>
+        <v>222246427487.2296</v>
       </c>
       <c r="E268" t="n">
-        <v>87.02197908217545</v>
+        <v>87.43613502876559</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.072122676283215</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>1846.064264023148</v>
+        <v>1842.865558834664</v>
       </c>
       <c r="C269" t="n">
-        <v>6373057170.18455</v>
+        <v>10471130832.93585</v>
       </c>
       <c r="D269" t="n">
-        <v>222246427487.2296</v>
+        <v>221632027136.726</v>
       </c>
       <c r="E269" t="n">
-        <v>87.43613502877822</v>
+        <v>88.76813584393669</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-0.2764500457668073</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>1842.865558834664</v>
+        <v>1798.071945526263</v>
       </c>
       <c r="C270" t="n">
-        <v>10471130832.93585</v>
+        <v>9217787395.589426</v>
       </c>
       <c r="D270" t="n">
-        <v>221632027136.726</v>
+        <v>216323022928.9258</v>
       </c>
       <c r="E270" t="n">
-        <v>88.76813584394907</v>
+        <v>91.6314869507458</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-2.39541382009969</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>1798.071945526263</v>
+        <v>1808.694999901569</v>
       </c>
       <c r="C271" t="n">
-        <v>9217787395.589426</v>
+        <v>10530874714.29914</v>
       </c>
       <c r="D271" t="n">
-        <v>216323022928.9258</v>
+        <v>217659652941.8761</v>
       </c>
       <c r="E271" t="n">
-        <v>91.63148695075768</v>
+        <v>93.97528501308871</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.6178861569392069</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>1808.694999901569</v>
+        <v>1797.19947013765</v>
       </c>
       <c r="C272" t="n">
-        <v>10530874714.29914</v>
+        <v>5150212384.025403</v>
       </c>
       <c r="D272" t="n">
-        <v>217659652941.8761</v>
+        <v>216032102439.7302</v>
       </c>
       <c r="E272" t="n">
-        <v>93.97528501310019</v>
+        <v>94.80799687500637</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-0.7477502054919039</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>1797.19947013765</v>
+        <v>1799.008658615005</v>
       </c>
       <c r="C273" t="n">
-        <v>5150212384.025403</v>
+        <v>4914907456.467633</v>
       </c>
       <c r="D273" t="n">
-        <v>216032102439.7302</v>
+        <v>216439514891.8453</v>
       </c>
       <c r="E273" t="n">
-        <v>94.80799687501749</v>
+        <v>89.80414740208904</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.188588847450899</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>1799.008658615005</v>
+        <v>1820.044759540719</v>
       </c>
       <c r="C274" t="n">
-        <v>4914907456.467633</v>
+        <v>7655256291.360313</v>
       </c>
       <c r="D274" t="n">
-        <v>216439514891.8453</v>
+        <v>218513683684.0507</v>
       </c>
       <c r="E274" t="n">
-        <v>89.80414740210045</v>
+        <v>83.35169423670382</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.9583133621612117</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>1820.044759540719</v>
+        <v>1823.663018347519</v>
       </c>
       <c r="C275" t="n">
-        <v>7655256291.360313</v>
+        <v>6283428506.771688</v>
       </c>
       <c r="D275" t="n">
-        <v>218513683684.0507</v>
+        <v>219562064257.9877</v>
       </c>
       <c r="E275" t="n">
-        <v>83.3516942367158</v>
+        <v>72.47731460816912</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.4797779966278393</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>1823.663018347519</v>
+        <v>1821.050634709663</v>
       </c>
       <c r="C276" t="n">
-        <v>6283428506.771688</v>
+        <v>6647945218.37179</v>
       </c>
       <c r="D276" t="n">
-        <v>219562064257.9877</v>
+        <v>219124262711.374</v>
       </c>
       <c r="E276" t="n">
-        <v>72.4773146081825</v>
+        <v>63.26966115427545</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-0.1993976273147458</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>1821.050634709663</v>
+        <v>1802.390955483449</v>
       </c>
       <c r="C277" t="n">
-        <v>6647945218.37179</v>
+        <v>6170212643.307527</v>
       </c>
       <c r="D277" t="n">
-        <v>219124262711.374</v>
+        <v>217078808863.7798</v>
       </c>
       <c r="E277" t="n">
-        <v>63.26966115429037</v>
+        <v>47.64969169992379</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-0.933467532204979</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>1802.390955483449</v>
+        <v>1812.131703560585</v>
       </c>
       <c r="C278" t="n">
-        <v>6170212643.307527</v>
+        <v>5092669091.509588</v>
       </c>
       <c r="D278" t="n">
-        <v>217078808863.7798</v>
+        <v>218083824882.0496</v>
       </c>
       <c r="E278" t="n">
-        <v>47.64969169994302</v>
+        <v>46.5556437258432</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.4629728823049017</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>1812.131703560585</v>
+        <v>1818.969529503585</v>
       </c>
       <c r="C279" t="n">
-        <v>5092669091.509588</v>
+        <v>3117917206.10603</v>
       </c>
       <c r="D279" t="n">
-        <v>218083824882.0496</v>
+        <v>218770214155.4801</v>
       </c>
       <c r="E279" t="n">
-        <v>46.55564372586262</v>
+        <v>44.37565764906083</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.3147364431093091</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>1818.969529503585</v>
+        <v>1804.92906710728</v>
       </c>
       <c r="C280" t="n">
-        <v>3117917206.10603</v>
+        <v>3835867355.217711</v>
       </c>
       <c r="D280" t="n">
-        <v>218770214155.4801</v>
+        <v>217302257173.6874</v>
       </c>
       <c r="E280" t="n">
-        <v>44.37565764908091</v>
+        <v>45.3400107311851</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-0.6710040429678377</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>1804.92906710728</v>
+        <v>1818.401464498085</v>
       </c>
       <c r="C281" t="n">
-        <v>3835867355.217711</v>
+        <v>5183573151.892912</v>
       </c>
       <c r="D281" t="n">
-        <v>217302257173.6874</v>
+        <v>218746186925.5668</v>
       </c>
       <c r="E281" t="n">
-        <v>45.34001073120465</v>
+        <v>45.58987301638788</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.6644798681153308</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>1818.401464498085</v>
+        <v>1854.193118273178</v>
       </c>
       <c r="C282" t="n">
-        <v>5183573151.892912</v>
+        <v>7537701078.994168</v>
       </c>
       <c r="D282" t="n">
-        <v>218746186925.5668</v>
+        <v>222906967413.9726</v>
       </c>
       <c r="E282" t="n">
-        <v>45.58987301640717</v>
+        <v>45.54328505092904</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1.902104236368518</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>1854.193118273178</v>
+        <v>1800.736010305837</v>
       </c>
       <c r="C283" t="n">
-        <v>7537701078.994168</v>
+        <v>8000139188.961748</v>
       </c>
       <c r="D283" t="n">
-        <v>222906967413.9726</v>
+        <v>216837950430.067</v>
       </c>
       <c r="E283" t="n">
-        <v>45.54328505094833</v>
+        <v>46.48079586387816</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-2.722668140127915</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>1800.736010305837</v>
+        <v>1805.805760405694</v>
       </c>
       <c r="C284" t="n">
-        <v>8000139188.961748</v>
+        <v>7459269403.375004</v>
       </c>
       <c r="D284" t="n">
-        <v>216837950430.067</v>
+        <v>217194191610.3175</v>
       </c>
       <c r="E284" t="n">
-        <v>46.48079586389696</v>
+        <v>47.03384874381776</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1642891290679849</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>1805.805760405694</v>
+        <v>1828.956536619728</v>
       </c>
       <c r="C285" t="n">
-        <v>7459269403.375004</v>
+        <v>6245753617.103617</v>
       </c>
       <c r="D285" t="n">
-        <v>217194191610.3175</v>
+        <v>219969209232.7905</v>
       </c>
       <c r="E285" t="n">
-        <v>47.0338487438362</v>
+        <v>47.02731753916559</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1.27766659039017</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>1828.956536619728</v>
+        <v>1830.306651316898</v>
       </c>
       <c r="C286" t="n">
-        <v>6245753617.103617</v>
+        <v>4068177989.627464</v>
       </c>
       <c r="D286" t="n">
-        <v>219969209232.7905</v>
+        <v>220035586188.3539</v>
       </c>
       <c r="E286" t="n">
-        <v>47.02731753918393</v>
+        <v>45.57567979758773</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.03017556675084521</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>1830.306651316898</v>
+        <v>1913.816249316578</v>
       </c>
       <c r="C287" t="n">
-        <v>4068177989.627464</v>
+        <v>7227287064.56947</v>
       </c>
       <c r="D287" t="n">
-        <v>220035586188.3539</v>
+        <v>230041639357.4828</v>
       </c>
       <c r="E287" t="n">
-        <v>45.57567979760646</v>
+        <v>46.43413551976045</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4.547470408065557</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>1913.816249316578</v>
+        <v>1893.714274089704</v>
       </c>
       <c r="C288" t="n">
-        <v>7227287064.56947</v>
+        <v>6762040908.702834</v>
       </c>
       <c r="D288" t="n">
-        <v>230041639357.4828</v>
+        <v>227805314887.0995</v>
       </c>
       <c r="E288" t="n">
-        <v>46.43413551977887</v>
+        <v>45.96552441085785</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.972138990414706</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>1893.714274089704</v>
+        <v>1901.078310164527</v>
       </c>
       <c r="C289" t="n">
-        <v>6762040908.702834</v>
+        <v>6019457141.148654</v>
       </c>
       <c r="D289" t="n">
-        <v>227805314887.0995</v>
+        <v>228588229006.9005</v>
       </c>
       <c r="E289" t="n">
-        <v>45.96552441087643</v>
+        <v>46.52678282102968</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.3436768453751515</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>1901.078310164527</v>
+        <v>1874.694885027078</v>
       </c>
       <c r="C290" t="n">
-        <v>6019457141.148654</v>
+        <v>5930556981.74496</v>
       </c>
       <c r="D290" t="n">
-        <v>228588229006.9005</v>
+        <v>225483513769.4682</v>
       </c>
       <c r="E290" t="n">
-        <v>46.52678282104807</v>
+        <v>46.75949433285913</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-1.358213085127213</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>1874.694885027078</v>
+        <v>1861.725386947619</v>
       </c>
       <c r="C291" t="n">
-        <v>5930556981.74496</v>
+        <v>6237923582.653606</v>
       </c>
       <c r="D291" t="n">
-        <v>225483513769.4682</v>
+        <v>223850958023.0443</v>
       </c>
       <c r="E291" t="n">
-        <v>46.75949433287754</v>
+        <v>46.62827583155947</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-0.7240244393623363</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>1861.725386947619</v>
+        <v>1907.212321851007</v>
       </c>
       <c r="C292" t="n">
-        <v>6237923582.653606</v>
+        <v>6910486182.970303</v>
       </c>
       <c r="D292" t="n">
-        <v>223850958023.0443</v>
+        <v>229335461597.8791</v>
       </c>
       <c r="E292" t="n">
-        <v>46.62827583157791</v>
+        <v>46.77954924750612</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2.450069288633627</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>1907.212321851007</v>
+        <v>1892.078176464758</v>
       </c>
       <c r="C293" t="n">
-        <v>6910486182.970303</v>
+        <v>3798117031.943575</v>
       </c>
       <c r="D293" t="n">
-        <v>229335461597.8791</v>
+        <v>227515751048.9767</v>
       </c>
       <c r="E293" t="n">
-        <v>46.77954924752451</v>
+        <v>47.18643909699649</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.79347107343265</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>1892.078176464758</v>
+        <v>1893.178280382087</v>
       </c>
       <c r="C294" t="n">
-        <v>3798117031.943575</v>
+        <v>4274226592.398274</v>
       </c>
       <c r="D294" t="n">
-        <v>227515751048.9767</v>
+        <v>227418753400.9453</v>
       </c>
       <c r="E294" t="n">
-        <v>47.18643909701475</v>
+        <v>39.35408064842343</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-0.04263337706695847</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>1893.178280382087</v>
+        <v>1813.6816549004</v>
       </c>
       <c r="C295" t="n">
-        <v>4274226592.398274</v>
+        <v>10887461193.43077</v>
       </c>
       <c r="D295" t="n">
-        <v>227418753400.9453</v>
+        <v>218224817446.1936</v>
       </c>
       <c r="E295" t="n">
-        <v>39.35408064844503</v>
+        <v>38.2262962858233</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-4.04273430280504</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>1813.6816549004</v>
+        <v>1883.242584625582</v>
       </c>
       <c r="C296" t="n">
-        <v>10887461193.43077</v>
+        <v>9540379707.014326</v>
       </c>
       <c r="D296" t="n">
-        <v>218224817446.1936</v>
+        <v>226225955928.725</v>
       </c>
       <c r="E296" t="n">
-        <v>38.22629628584526</v>
+        <v>37.69858941051898</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.666465884204095</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>1883.242584625582</v>
+        <v>1832.320402503454</v>
       </c>
       <c r="C297" t="n">
-        <v>9540379707.014326</v>
+        <v>8474108659.099132</v>
       </c>
       <c r="D297" t="n">
-        <v>226225955928.725</v>
+        <v>220285044251.9128</v>
       </c>
       <c r="E297" t="n">
-        <v>37.69858941054122</v>
+        <v>37.69060843856858</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-2.626096396597377</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>1832.320402503454</v>
+        <v>1846.030001782057</v>
       </c>
       <c r="C298" t="n">
-        <v>8474108659.099132</v>
+        <v>4854817113.536453</v>
       </c>
       <c r="D298" t="n">
-        <v>220285044251.9128</v>
+        <v>222012641423.2545</v>
       </c>
       <c r="E298" t="n">
-        <v>37.69060843859076</v>
+        <v>37.69041910248048</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.7842553166551136</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>1846.030001782057</v>
+        <v>1839.208012658193</v>
       </c>
       <c r="C299" t="n">
-        <v>4854817113.536453</v>
+        <v>5093666796.918479</v>
       </c>
       <c r="D299" t="n">
-        <v>222012641423.2545</v>
+        <v>221018802010.8545</v>
       </c>
       <c r="E299" t="n">
-        <v>37.69041910250266</v>
+        <v>37.68676703343357</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-0.4476499203057704</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>1839.208012658193</v>
+        <v>1754.673228410636</v>
       </c>
       <c r="C300" t="n">
-        <v>5093666796.918479</v>
+        <v>41417850678.71391</v>
       </c>
       <c r="D300" t="n">
-        <v>221018802010.8545</v>
+        <v>210950148701.2072</v>
       </c>
       <c r="E300" t="n">
-        <v>37.68676703345574</v>
+        <v>40.10261356976157</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-4.555564150217773</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>1754.673228410636</v>
+        <v>1751.72459650425</v>
       </c>
       <c r="C301" t="n">
-        <v>41417850678.71391</v>
+        <v>5031836446.183817</v>
       </c>
       <c r="D301" t="n">
-        <v>210950148701.2072</v>
+        <v>210604043872.2481</v>
       </c>
       <c r="E301" t="n">
-        <v>40.10261356978227</v>
+        <v>42.81666400680914</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-0.1640694880236215</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>1751.72459650425</v>
+        <v>1742.596052566616</v>
       </c>
       <c r="C302" t="n">
-        <v>5031836446.183817</v>
+        <v>6731496663.213711</v>
       </c>
       <c r="D302" t="n">
-        <v>210604043872.2481</v>
+        <v>209462687695.9398</v>
       </c>
       <c r="E302" t="n">
-        <v>42.81666400682836</v>
+        <v>45.61571623736804</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-0.5419440934385067</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>1742.596052566616</v>
+        <v>1736.789437167462</v>
       </c>
       <c r="C303" t="n">
-        <v>6731496663.213711</v>
+        <v>6798862284.580931</v>
       </c>
       <c r="D303" t="n">
-        <v>209462687695.9398</v>
+        <v>208703993936.8153</v>
       </c>
       <c r="E303" t="n">
-        <v>45.61571623738593</v>
+        <v>48.61137628185835</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-0.3622095025467509</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>1736.789437167462</v>
+        <v>1650.676667553546</v>
       </c>
       <c r="C304" t="n">
-        <v>6798862284.580931</v>
+        <v>8025571357.471881</v>
       </c>
       <c r="D304" t="n">
-        <v>208703993936.8153</v>
+        <v>198559274296.6206</v>
       </c>
       <c r="E304" t="n">
-        <v>48.61137628187497</v>
+        <v>58.8763625207636</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-4.860817202791989</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>1650.676667553546</v>
+        <v>1664.977462394022</v>
       </c>
       <c r="C305" t="n">
-        <v>8025571357.471881</v>
+        <v>8283225649.876287</v>
       </c>
       <c r="D305" t="n">
-        <v>198559274296.6206</v>
+        <v>200099209933.7168</v>
       </c>
       <c r="E305" t="n">
-        <v>58.87636252077698</v>
+        <v>65.89617961359352</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.7755546259681223</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>1664.977462394022</v>
+        <v>1716.377281092857</v>
       </c>
       <c r="C306" t="n">
-        <v>8283225649.876287</v>
+        <v>7008799576.154325</v>
       </c>
       <c r="D306" t="n">
-        <v>200099209933.7168</v>
+        <v>206321573355.8955</v>
       </c>
       <c r="E306" t="n">
-        <v>65.8961796136052</v>
+        <v>68.64605475524129</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3.109639175606871</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>1716.377281092857</v>
+        <v>1726.372809734998</v>
       </c>
       <c r="C307" t="n">
-        <v>7008799576.154325</v>
+        <v>4859690685.481605</v>
       </c>
       <c r="D307" t="n">
-        <v>206321573355.8955</v>
+        <v>207595972780.2269</v>
       </c>
       <c r="E307" t="n">
-        <v>68.64605475525232</v>
+        <v>70.62502926567447</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.6176762825151227</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>1726.372809734998</v>
+        <v>1719.273161506867</v>
       </c>
       <c r="C308" t="n">
-        <v>4859690685.481605</v>
+        <v>4084738737.028457</v>
       </c>
       <c r="D308" t="n">
-        <v>207595972780.2269</v>
+        <v>206730774198.4613</v>
       </c>
       <c r="E308" t="n">
-        <v>70.62502926568507</v>
+        <v>72.7879389641617</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-0.416770407526923</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>1719.273161506867</v>
+        <v>1734.793103442663</v>
       </c>
       <c r="C309" t="n">
-        <v>4084738737.028457</v>
+        <v>5770983890.906085</v>
       </c>
       <c r="D309" t="n">
-        <v>206730774198.4613</v>
+        <v>208507638780.8943</v>
       </c>
       <c r="E309" t="n">
-        <v>72.78793896417183</v>
+        <v>74.14341377068432</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.8595065680580438</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>1734.793103442663</v>
+        <v>1790.190440731765</v>
       </c>
       <c r="C310" t="n">
-        <v>5770983890.906085</v>
+        <v>7900259127.350303</v>
       </c>
       <c r="D310" t="n">
-        <v>208507638780.8943</v>
+        <v>215060967094.1403</v>
       </c>
       <c r="E310" t="n">
-        <v>74.14341377069415</v>
+        <v>74.22548750158734</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.142967975447863</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>1790.190440731765</v>
+        <v>1892.899571916819</v>
       </c>
       <c r="C311" t="n">
-        <v>7900259127.350303</v>
+        <v>12294793429.60021</v>
       </c>
       <c r="D311" t="n">
-        <v>215060967094.1403</v>
+        <v>227581626984.1515</v>
       </c>
       <c r="E311" t="n">
-        <v>74.22548750159712</v>
+        <v>75.77079598262681</v>
+      </c>
+      <c r="F311" t="n">
+        <v>5.821911832345861</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>1892.899571916819</v>
+        <v>1874.177947016714</v>
       </c>
       <c r="C312" t="n">
-        <v>12294793429.60021</v>
+        <v>9842202528.707741</v>
       </c>
       <c r="D312" t="n">
-        <v>227581626984.1515</v>
+        <v>225381084937.8792</v>
       </c>
       <c r="E312" t="n">
-        <v>75.77079598263651</v>
+        <v>76.24294509280344</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-0.966924296760352</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>1874.177947016714</v>
+        <v>1891.345008021678</v>
       </c>
       <c r="C313" t="n">
-        <v>9842202528.707741</v>
+        <v>9303341351.325251</v>
       </c>
       <c r="D313" t="n">
-        <v>225381084937.8792</v>
+        <v>227419416441.5965</v>
       </c>
       <c r="E313" t="n">
-        <v>76.2429450928131</v>
+        <v>77.54671923792961</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.9043933319777375</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>1891.345008021678</v>
+        <v>1875.059961928488</v>
       </c>
       <c r="C314" t="n">
-        <v>9303341351.325251</v>
+        <v>4889178964.702732</v>
       </c>
       <c r="D314" t="n">
-        <v>227419416441.5965</v>
+        <v>225448939889.3551</v>
       </c>
       <c r="E314" t="n">
-        <v>77.54671923793924</v>
+        <v>78.27666652776867</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-0.8664504478435364</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>1875.059961928488</v>
+        <v>1899.147312104605</v>
       </c>
       <c r="C315" t="n">
-        <v>4889178964.702732</v>
+        <v>7363880089.050316</v>
       </c>
       <c r="D315" t="n">
-        <v>225448939889.3551</v>
+        <v>228332438014.1302</v>
       </c>
       <c r="E315" t="n">
-        <v>78.27666652777829</v>
+        <v>79.65928154396163</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1.279002742789648</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>1899.147312104605</v>
+        <v>1859.802419642797</v>
       </c>
       <c r="C316" t="n">
-        <v>7363880089.050316</v>
+        <v>9893270861.839865</v>
       </c>
       <c r="D316" t="n">
-        <v>228332438014.1302</v>
+        <v>223061316934.5412</v>
       </c>
       <c r="E316" t="n">
-        <v>79.65928154397119</v>
+        <v>79.97086301390028</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-2.308529232829692</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>1859.802419642797</v>
+        <v>1890.012903783708</v>
       </c>
       <c r="C317" t="n">
-        <v>9893270861.839865</v>
+        <v>8806434878.376961</v>
       </c>
       <c r="D317" t="n">
-        <v>223061316934.5412</v>
+        <v>227143144300.6532</v>
       </c>
       <c r="E317" t="n">
-        <v>79.97086301390985</v>
+        <v>79.13288711287012</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.82991269943491</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>1890.012903783708</v>
+        <v>1828.458336400725</v>
       </c>
       <c r="C318" t="n">
-        <v>8806434878.376961</v>
+        <v>6821723542.735137</v>
       </c>
       <c r="D318" t="n">
-        <v>227143144300.6532</v>
+        <v>219923192180.6849</v>
       </c>
       <c r="E318" t="n">
-        <v>79.13288711287976</v>
+        <v>77.933126178606</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-3.178591254513807</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>1828.458336400725</v>
+        <v>1853.445245874994</v>
       </c>
       <c r="C319" t="n">
-        <v>6821723542.735137</v>
+        <v>6609358548.632103</v>
       </c>
       <c r="D319" t="n">
-        <v>219923192180.6849</v>
+        <v>222892015037.6711</v>
       </c>
       <c r="E319" t="n">
-        <v>77.93312617861569</v>
+        <v>76.65965577101389</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1.349936233440552</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>1853.445245874994</v>
+        <v>1934.045714261775</v>
       </c>
       <c r="C320" t="n">
-        <v>6609358548.632103</v>
+        <v>11695335269.50953</v>
       </c>
       <c r="D320" t="n">
-        <v>222892015037.6711</v>
+        <v>232417040695.4234</v>
       </c>
       <c r="E320" t="n">
-        <v>76.65965577102367</v>
+        <v>78.94404534833868</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4.273381285616029</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>1934.045714261775</v>
+        <v>1924.567240867651</v>
       </c>
       <c r="C321" t="n">
-        <v>11695335269.50953</v>
+        <v>5763533551.087498</v>
       </c>
       <c r="D321" t="n">
-        <v>232417040695.4234</v>
+        <v>231096044843.4623</v>
       </c>
       <c r="E321" t="n">
-        <v>78.94404534834828</v>
+        <v>80.93861783890206</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-0.5683730624951311</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>1924.567240867651</v>
+        <v>1933.959881383207</v>
       </c>
       <c r="C322" t="n">
-        <v>5763533551.087498</v>
+        <v>7183593046.18616</v>
       </c>
       <c r="D322" t="n">
-        <v>231096044843.4623</v>
+        <v>232373535009.1871</v>
       </c>
       <c r="E322" t="n">
-        <v>80.93861783891153</v>
+        <v>82.06494891182571</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.5527962049675761</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>1933.959881383207</v>
+        <v>1953.781127648916</v>
       </c>
       <c r="C323" t="n">
-        <v>7183593046.18616</v>
+        <v>9155212793.374969</v>
       </c>
       <c r="D323" t="n">
-        <v>232373535009.1871</v>
+        <v>234942840998.1385</v>
       </c>
       <c r="E323" t="n">
-        <v>82.06494891183509</v>
+        <v>84.62792746909736</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.105679262851456</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>1953.781127648916</v>
+        <v>1937.000425539135</v>
       </c>
       <c r="C324" t="n">
-        <v>9155212793.374969</v>
+        <v>6067277571.219523</v>
       </c>
       <c r="D324" t="n">
-        <v>234942840998.1385</v>
+        <v>233226523011.071</v>
       </c>
       <c r="E324" t="n">
-        <v>84.62792746910652</v>
+        <v>86.23398136036894</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-0.7305257652354236</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>1937.000425539135</v>
+        <v>1910.505260509741</v>
       </c>
       <c r="C325" t="n">
-        <v>6067277571.219523</v>
+        <v>8180984490.329683</v>
       </c>
       <c r="D325" t="n">
-        <v>233226523011.071</v>
+        <v>230045605241.4196</v>
       </c>
       <c r="E325" t="n">
-        <v>86.233981360378</v>
+        <v>87.59608932704033</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-1.36387479802218</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>1910.505260509741</v>
+        <v>1855.47478363631</v>
       </c>
       <c r="C326" t="n">
-        <v>8180984490.329683</v>
+        <v>13544056615.64035</v>
       </c>
       <c r="D326" t="n">
-        <v>230045605241.4196</v>
+        <v>223411633998.6567</v>
       </c>
       <c r="E326" t="n">
-        <v>87.59608932704936</v>
+        <v>87.14047082022307</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-2.883763519759919</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>1855.47478363631</v>
+        <v>1869.317187141899</v>
       </c>
       <c r="C327" t="n">
-        <v>13544056615.64035</v>
+        <v>8877609275.171074</v>
       </c>
       <c r="D327" t="n">
-        <v>223411633998.6567</v>
+        <v>224666147793.6087</v>
       </c>
       <c r="E327" t="n">
-        <v>87.1404708202321</v>
+        <v>87.47478664723401</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.5615257238392513</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>1869.317187141899</v>
+        <v>1864.868591914638</v>
       </c>
       <c r="C328" t="n">
-        <v>8877609275.171074</v>
+        <v>5224435476.270515</v>
       </c>
       <c r="D328" t="n">
-        <v>224666147793.6087</v>
+        <v>224139520023.7157</v>
       </c>
       <c r="E328" t="n">
-        <v>87.47478664724306</v>
+        <v>87.67194755806779</v>
+      </c>
+      <c r="F328" t="n">
+        <v>-0.2344045932441974</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>1864.868591914638</v>
+        <v>1866.916742480399</v>
       </c>
       <c r="C329" t="n">
-        <v>5224435476.270515</v>
+        <v>2772113286.210201</v>
       </c>
       <c r="D329" t="n">
-        <v>224139520023.7157</v>
+        <v>224416034755.062</v>
       </c>
       <c r="E329" t="n">
-        <v>87.67194755807684</v>
+        <v>87.92677707380365</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.1233672363164739</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>1866.916742480399</v>
+        <v>1875.274272672053</v>
       </c>
       <c r="C330" t="n">
-        <v>2772113286.210201</v>
+        <v>8878301263.054636</v>
       </c>
       <c r="D330" t="n">
-        <v>224416034755.062</v>
+        <v>225295266243.2764</v>
       </c>
       <c r="E330" t="n">
-        <v>87.92677707381273</v>
+        <v>87.11215004463853</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.3917863931487853</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>1875.274272672053</v>
+        <v>1875.865871929494</v>
       </c>
       <c r="C331" t="n">
-        <v>8878301263.054636</v>
+        <v>5503014510.733429</v>
       </c>
       <c r="D331" t="n">
-        <v>225295266243.2764</v>
+        <v>225467256388.7195</v>
       </c>
       <c r="E331" t="n">
-        <v>87.11215004464783</v>
+        <v>86.00428537165423</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.07633988423771942</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>1875.865871929494</v>
+        <v>1873.506815377398</v>
       </c>
       <c r="C332" t="n">
-        <v>5503014510.733429</v>
+        <v>7979716345.774549</v>
       </c>
       <c r="D332" t="n">
-        <v>225467256388.7195</v>
+        <v>225081147081.1057</v>
       </c>
       <c r="E332" t="n">
-        <v>86.00428537166383</v>
+        <v>84.28673675805138</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-0.1712485057910773</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>1873.506815377398</v>
+        <v>2003.253616074307</v>
       </c>
       <c r="C333" t="n">
-        <v>7979716345.774549</v>
+        <v>12253238016.10312</v>
       </c>
       <c r="D333" t="n">
-        <v>225081147081.1057</v>
+        <v>240656450975.356</v>
       </c>
       <c r="E333" t="n">
-        <v>84.28673675806131</v>
+        <v>86.75264428025372</v>
+      </c>
+      <c r="F333" t="n">
+        <v>6.919861612682254</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>2003.253616074307</v>
+        <v>1935.940240744203</v>
       </c>
       <c r="C334" t="n">
-        <v>12253238016.10312</v>
+        <v>13163947666.12002</v>
       </c>
       <c r="D334" t="n">
-        <v>240656450975.356</v>
+        <v>232297518076.9016</v>
       </c>
       <c r="E334" t="n">
-        <v>86.75264428026372</v>
+        <v>79.29335502168935</v>
+      </c>
+      <c r="F334" t="n">
+        <v>-3.473388253078835</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>1935.940240744203</v>
+        <v>1931.389384157173</v>
       </c>
       <c r="C335" t="n">
-        <v>13163947666.12002</v>
+        <v>4430406660.749946</v>
       </c>
       <c r="D335" t="n">
-        <v>232297518076.9016</v>
+        <v>232081207333.1973</v>
       </c>
       <c r="E335" t="n">
-        <v>79.29335502170068</v>
+        <v>71.07276203525379</v>
+      </c>
+      <c r="F335" t="n">
+        <v>-0.09311797452465909</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>1931.389384157173</v>
+        <v>1923.035989816043</v>
       </c>
       <c r="C336" t="n">
-        <v>4430406660.749946</v>
+        <v>4551682234.721218</v>
       </c>
       <c r="D336" t="n">
-        <v>232081207333.1973</v>
+        <v>230847045457.2026</v>
       </c>
       <c r="E336" t="n">
-        <v>71.07276203526686</v>
+        <v>65.47415640205628</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-0.531780185985864</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>1923.035989816043</v>
+        <v>1912.122835569563</v>
       </c>
       <c r="C337" t="n">
-        <v>4551682234.721218</v>
+        <v>7684722413.234391</v>
       </c>
       <c r="D337" t="n">
-        <v>230847045457.2026</v>
+        <v>229772643177.7627</v>
       </c>
       <c r="E337" t="n">
-        <v>65.47415640207085</v>
+        <v>59.24592114644908</v>
+      </c>
+      <c r="F337" t="n">
+        <v>-0.4654173837538078</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>1912.122835569563</v>
+        <v>1897.199112644643</v>
       </c>
       <c r="C338" t="n">
-        <v>7684722413.234391</v>
+        <v>9120475118.907444</v>
       </c>
       <c r="D338" t="n">
-        <v>229772643177.7627</v>
+        <v>227853365302.5875</v>
       </c>
       <c r="E338" t="n">
-        <v>59.24592114646553</v>
+        <v>50.56198756391702</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-0.8352943364499432</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>1897.199112644643</v>
+        <v>1889.223805551766</v>
       </c>
       <c r="C339" t="n">
-        <v>9120475118.907444</v>
+        <v>8894957096.351507</v>
       </c>
       <c r="D339" t="n">
-        <v>227853365302.5875</v>
+        <v>227127167868.4293</v>
       </c>
       <c r="E339" t="n">
-        <v>50.56198756393669</v>
+        <v>41.35275160451649</v>
+      </c>
+      <c r="F339" t="n">
+        <v>-0.318712621687145</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>1889.223805551766</v>
+        <v>1891.014505458937</v>
       </c>
       <c r="C340" t="n">
-        <v>8894957096.351507</v>
+        <v>11204166583.06183</v>
       </c>
       <c r="D340" t="n">
-        <v>227127167868.4293</v>
+        <v>227484313829.408</v>
       </c>
       <c r="E340" t="n">
-        <v>41.35275160454091</v>
+        <v>36.42331206600274</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.1572449321367131</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>1891.014505458937</v>
+        <v>1891.472402826685</v>
       </c>
       <c r="C341" t="n">
-        <v>11204166583.06183</v>
+        <v>6309767940.447504</v>
       </c>
       <c r="D341" t="n">
-        <v>227484313829.408</v>
+        <v>227467577018.6978</v>
       </c>
       <c r="E341" t="n">
-        <v>36.42331206603073</v>
+        <v>36.43035163849324</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-0.007357347163206018</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>1891.472402826685</v>
+        <v>1858.311195808306</v>
       </c>
       <c r="C342" t="n">
-        <v>6309767940.447504</v>
+        <v>5837098870.775477</v>
       </c>
       <c r="D342" t="n">
-        <v>227467577018.6978</v>
+        <v>223308803225.0452</v>
       </c>
       <c r="E342" t="n">
-        <v>36.43035163852121</v>
+        <v>36.89096797043496</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-1.828293002527881</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>1858.311195808306</v>
+        <v>1887.826980856978</v>
       </c>
       <c r="C343" t="n">
-        <v>5837098870.775477</v>
+        <v>6531824636.513696</v>
       </c>
       <c r="D343" t="n">
-        <v>223308803225.0452</v>
+        <v>226861079166.8318</v>
       </c>
       <c r="E343" t="n">
-        <v>36.89096797046255</v>
+        <v>36.91463440431576</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.590746038886182</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>1887.826980856978</v>
+        <v>1850.431150587501</v>
       </c>
       <c r="C344" t="n">
-        <v>6531824636.513696</v>
+        <v>9438614856.624678</v>
       </c>
       <c r="D344" t="n">
-        <v>226861079166.8318</v>
+        <v>222318417477.211</v>
       </c>
       <c r="E344" t="n">
-        <v>36.91463440434332</v>
+        <v>37.67905595390676</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-2.002397990128613</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>1850.431150587501</v>
+        <v>1857.59659274703</v>
       </c>
       <c r="C345" t="n">
-        <v>9438614856.624678</v>
+        <v>4329972807.86323</v>
       </c>
       <c r="D345" t="n">
-        <v>222318417477.211</v>
+        <v>223476900309.9311</v>
       </c>
       <c r="E345" t="n">
-        <v>37.67905595393371</v>
+        <v>38.31410938236876</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.5210917052514752</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>1857.59659274703</v>
+        <v>1871.5331057115</v>
       </c>
       <c r="C346" t="n">
-        <v>4329972807.86323</v>
+        <v>7307465774.976813</v>
       </c>
       <c r="D346" t="n">
-        <v>223476900309.9311</v>
+        <v>224855185617.9887</v>
       </c>
       <c r="E346" t="n">
-        <v>38.31410938239515</v>
+        <v>38.00618923060765</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.6167462078389807</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>1871.5331057115</v>
+        <v>1858.77702138144</v>
       </c>
       <c r="C347" t="n">
-        <v>7307465774.976813</v>
+        <v>6626220422.969731</v>
       </c>
       <c r="D347" t="n">
-        <v>224855185617.9887</v>
+        <v>223413249190.3791</v>
       </c>
       <c r="E347" t="n">
-        <v>38.00618923063429</v>
+        <v>38.56871921632779</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.6412733705236096</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>1858.77702138144</v>
+        <v>1874.693995076067</v>
       </c>
       <c r="C348" t="n">
-        <v>6626220422.969731</v>
+        <v>4775263924.223373</v>
       </c>
       <c r="D348" t="n">
-        <v>223413249190.3791</v>
+        <v>225320465659.7457</v>
       </c>
       <c r="E348" t="n">
-        <v>38.56871921635397</v>
+        <v>36.74542661298365</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.8536720522520636</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>1874.693995076067</v>
+        <v>1880.918076529941</v>
       </c>
       <c r="C349" t="n">
-        <v>4775263924.223373</v>
+        <v>2990426323.771476</v>
       </c>
       <c r="D349" t="n">
-        <v>225320465659.7457</v>
+        <v>226074318965.1302</v>
       </c>
       <c r="E349" t="n">
-        <v>36.74542661301124</v>
+        <v>35.9982222060285</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.3345693890598245</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>1880.918076529941</v>
+        <v>1861.86990979321</v>
       </c>
       <c r="C350" t="n">
-        <v>2990426323.771476</v>
+        <v>5791342964.545562</v>
       </c>
       <c r="D350" t="n">
-        <v>226074318965.1302</v>
+        <v>223813641443.3044</v>
       </c>
       <c r="E350" t="n">
-        <v>35.99822220605673</v>
+        <v>35.80180107128206</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-0.9999709529920353</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>1861.86990979321</v>
+        <v>1857.276195762852</v>
       </c>
       <c r="C351" t="n">
-        <v>5791342964.545562</v>
+        <v>6106091989.307732</v>
       </c>
       <c r="D351" t="n">
-        <v>223813641443.3044</v>
+        <v>223177200443.9528</v>
       </c>
       <c r="E351" t="n">
-        <v>35.80180107131027</v>
+        <v>35.92333531135912</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-0.2843620233544897</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>1857.276195762852</v>
+        <v>1869.745108667992</v>
       </c>
       <c r="C352" t="n">
-        <v>6106091989.307732</v>
+        <v>8990773317.298777</v>
       </c>
       <c r="D352" t="n">
-        <v>223177200443.9528</v>
+        <v>225952018918.5822</v>
       </c>
       <c r="E352" t="n">
-        <v>35.92333531138705</v>
+        <v>35.22343003479045</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1.243325245190618</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>1869.745108667992</v>
+        <v>1838.01195187603</v>
       </c>
       <c r="C353" t="n">
-        <v>8990773317.298777</v>
+        <v>8178850227.510264</v>
       </c>
       <c r="D353" t="n">
-        <v>225952018918.5822</v>
+        <v>220936460217.7447</v>
       </c>
       <c r="E353" t="n">
-        <v>35.22343003481874</v>
+        <v>34.27124691214343</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.219745025887421</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>1838.01195187603</v>
+        <v>1835.701302675286</v>
       </c>
       <c r="C354" t="n">
-        <v>8178850227.510264</v>
+        <v>5908647350.667135</v>
       </c>
       <c r="D354" t="n">
-        <v>220936460217.7447</v>
+        <v>220768212248.9121</v>
       </c>
       <c r="E354" t="n">
-        <v>34.27124691217217</v>
+        <v>34.02984735197585</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-0.07615219718229982</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>1835.701302675286</v>
+        <v>1828.46119377611</v>
       </c>
       <c r="C355" t="n">
-        <v>5908647350.667135</v>
+        <v>6229669774.689679</v>
       </c>
       <c r="D355" t="n">
-        <v>220768212248.9121</v>
+        <v>219476177802.6977</v>
       </c>
       <c r="E355" t="n">
-        <v>34.0298473520045</v>
+        <v>34.96894959402977</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.5852447836818597</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>1828.46119377611</v>
+        <v>1835.07057784219</v>
       </c>
       <c r="C356" t="n">
-        <v>6229669774.689679</v>
+        <v>2952349825.885361</v>
       </c>
       <c r="D356" t="n">
-        <v>219476177802.6977</v>
+        <v>220487019493.5887</v>
       </c>
       <c r="E356" t="n">
-        <v>34.96894959405742</v>
+        <v>35.6455934954343</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.4605701179103638</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>1835.07057784219</v>
+        <v>1826.706779270218</v>
       </c>
       <c r="C357" t="n">
-        <v>2952349825.885361</v>
+        <v>2992818475.645687</v>
       </c>
       <c r="D357" t="n">
-        <v>220487019493.5887</v>
+        <v>219533986979.7513</v>
       </c>
       <c r="E357" t="n">
-        <v>35.64559349546136</v>
+        <v>36.8680587776025</v>
+      </c>
+      <c r="F357" t="n">
+        <v>-0.4322397372989784</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>1826.706779270218</v>
+        <v>1826.933485573052</v>
       </c>
       <c r="C358" t="n">
-        <v>2992818475.645687</v>
+        <v>7660232552.642202</v>
       </c>
       <c r="D358" t="n">
-        <v>219533986979.7513</v>
+        <v>219422824381.9936</v>
       </c>
       <c r="E358" t="n">
-        <v>36.86805877762854</v>
+        <v>37.94974879244402</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.05063571216783469</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>1826.933485573052</v>
+        <v>1856.844144512041</v>
       </c>
       <c r="C359" t="n">
-        <v>7660232552.642202</v>
+        <v>7498117030.737751</v>
       </c>
       <c r="D359" t="n">
-        <v>219422824381.9936</v>
+        <v>223111331723.6391</v>
       </c>
       <c r="E359" t="n">
-        <v>37.94974879246921</v>
+        <v>38.07907462312657</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1.681004404183661</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>1856.844144512041</v>
+        <v>1855.89072732665</v>
       </c>
       <c r="C360" t="n">
-        <v>7498117030.737751</v>
+        <v>6010104016.055266</v>
       </c>
       <c r="D360" t="n">
-        <v>223111331723.6391</v>
+        <v>222992437544.1327</v>
       </c>
       <c r="E360" t="n">
-        <v>38.07907462315164</v>
+        <v>38.25352578287161</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-0.05328917118994081</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>1855.89072732665</v>
+        <v>1850.876988699349</v>
       </c>
       <c r="C361" t="n">
-        <v>6010104016.055266</v>
+        <v>3733537744.902737</v>
       </c>
       <c r="D361" t="n">
-        <v>222992437544.1327</v>
+        <v>222411268370.8958</v>
       </c>
       <c r="E361" t="n">
-        <v>38.25352578289651</v>
+        <v>38.51019800342782</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-0.260622817364331</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>1850.876988699349</v>
+        <v>1847.541835114324</v>
       </c>
       <c r="C362" t="n">
-        <v>3733537744.902737</v>
+        <v>3694816570.962365</v>
       </c>
       <c r="D362" t="n">
-        <v>222411268370.8958</v>
+        <v>222019374228.7649</v>
       </c>
       <c r="E362" t="n">
-        <v>38.51019800345249</v>
+        <v>38.82120121326717</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.1762024671688067</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>1847.541835114324</v>
+        <v>1848.505238656101</v>
       </c>
       <c r="C363" t="n">
-        <v>3694816570.962365</v>
+        <v>2215986526.701653</v>
       </c>
       <c r="D363" t="n">
-        <v>222019374228.7649</v>
+        <v>222069758272.7274</v>
       </c>
       <c r="E363" t="n">
-        <v>38.82120121329157</v>
+        <v>30.34451629027717</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.02269353480415237</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>1848.505238656101</v>
+        <v>1839.512809542205</v>
       </c>
       <c r="C364" t="n">
-        <v>2215986526.701653</v>
+        <v>3642424563.740612</v>
       </c>
       <c r="D364" t="n">
-        <v>222069758272.7274</v>
+        <v>220948326523.3336</v>
       </c>
       <c r="E364" t="n">
-        <v>30.34451629030783</v>
+        <v>27.95243091169342</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.5049907552097221</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>1839.512809542205</v>
+        <v>1843.513391005347</v>
       </c>
       <c r="C365" t="n">
-        <v>3642424563.740612</v>
+        <v>4495324729.871393</v>
       </c>
       <c r="D365" t="n">
-        <v>220948326523.3336</v>
+        <v>221564238004.3088</v>
       </c>
       <c r="E365" t="n">
-        <v>27.95243091172636</v>
+        <v>25.24491149395624</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.2787581561112917</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>1843.513391005347</v>
+        <v>1826.913128159462</v>
       </c>
       <c r="C366" t="n">
-        <v>4495324729.871393</v>
+        <v>4416612452.114058</v>
       </c>
       <c r="D366" t="n">
-        <v>221564238004.3088</v>
+        <v>219472776850.5118</v>
       </c>
       <c r="E366" t="n">
-        <v>25.24491149399237</v>
+        <v>23.28384290839514</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-0.9439524955089151</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.60643518518</v>
+        <v>45154.61472222222</v>
       </c>
       <c r="B367" t="n">
-        <v>1841.567779784245</v>
+        <v>1823.574825373697</v>
       </c>
       <c r="C367" t="n">
-        <v>4363938849.538705</v>
+        <v>5605543686.91298</v>
       </c>
       <c r="D367" t="n">
-        <v>221255316544.8618</v>
+        <v>218989555752.5172</v>
       </c>
       <c r="E367" t="n">
-        <v>22.73433910908977</v>
+        <v>21.89036727490562</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-0.2201735927931159</v>
       </c>
     </row>
   </sheetData>
